--- a/public/view/files/PLLA - OPERMIN  08.19 F COPIA.xlsx
+++ b/public/view/files/PLLA - OPERMIN  08.19 F COPIA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgali\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AAB01-DEA3-4455-8B38-264ECFA2E256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="7695" tabRatio="894" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="894" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERENTE" sheetId="94" r:id="rId1"/>
@@ -122,18 +128,26 @@
     <definedName name="TRABAJADOR">#REF!</definedName>
     <definedName name="VALOR_DIA">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leidy Rios</author>
   </authors>
   <commentList>
-    <comment ref="AD11" authorId="0">
+    <comment ref="AD11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -152,13 +166,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leidy Rios</author>
     <author>Danitza Angulo Ynga</author>
   </authors>
   <commentList>
-    <comment ref="AD11" authorId="0">
+    <comment ref="AD11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EV16" authorId="1">
+    <comment ref="EV16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR20" authorId="1">
+    <comment ref="AR20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB20" authorId="1">
+    <comment ref="DB20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ22" authorId="1">
+    <comment ref="AQ22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -234,13 +248,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leidy Rios</author>
     <author>Danitza Angulo Ynga</author>
   </authors>
   <commentList>
-    <comment ref="AD11" authorId="0">
+    <comment ref="AD11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR14" authorId="1">
+    <comment ref="AR14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1166,36 +1180,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/.&quot;* #,##0.00_ ;_ &quot;S/.&quot;* \-#,##0.00_ ;_ &quot;S/.&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
-    <numFmt numFmtId="166" formatCode="00000000"/>
-    <numFmt numFmtId="167" formatCode="[$-280A]General"/>
-    <numFmt numFmtId="168" formatCode="[$-2C0A]General"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="171" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="172" formatCode="[$-280A]0"/>
-    <numFmt numFmtId="173" formatCode="[$S/-280A]#,##0.00;[Red][$S/-280A]&quot;-&quot;#,##0.00"/>
-    <numFmt numFmtId="174" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
-    <numFmt numFmtId="176" formatCode="[$$-2C0A]#,##0.00;[Red]&quot;(&quot;[$$-2C0A]#,##0.00&quot;)&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot; S/. &quot;#,##0.00&quot; &quot;;&quot; S/. -&quot;#,##0.00&quot; &quot;;&quot; S/. -&quot;#&quot; &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="182" formatCode="_ &quot;S/. &quot;* #,##0.00_ ;_ &quot;S/. &quot;* \-#,##0.00_ ;_ &quot;S/. &quot;* \-??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="&quot;S/.&quot;\ #,##0"/>
-    <numFmt numFmtId="184" formatCode="_(&quot;S/.&quot;\ * #,##0.00_);_(&quot;S/.&quot;\ * \(#,##0.00\);_(&quot;S/.&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="dd\-mm\-yy;@"/>
-    <numFmt numFmtId="187" formatCode="dd/mm/yyyy;\-"/>
-    <numFmt numFmtId="188" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="189" formatCode="&quot;S/.&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;* #,##0.00_ ;_ &quot;S/.&quot;* \-#,##0.00_ ;_ &quot;S/.&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
+    <numFmt numFmtId="168" formatCode="00000000"/>
+    <numFmt numFmtId="169" formatCode="[$-280A]General"/>
+    <numFmt numFmtId="170" formatCode="[$-2C0A]General"/>
+    <numFmt numFmtId="171" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="173" formatCode="[$-280A]0"/>
+    <numFmt numFmtId="174" formatCode="[$S/-280A]#,##0.00;[Red][$S/-280A]&quot;-&quot;#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
+    <numFmt numFmtId="177" formatCode="[$$-2C0A]#,##0.00;[Red]&quot;(&quot;[$$-2C0A]#,##0.00&quot;)&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot; S/. &quot;#,##0.00&quot; &quot;;&quot; S/. -&quot;#,##0.00&quot; &quot;;&quot; S/. -&quot;#&quot; &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="183" formatCode="_ &quot;S/. &quot;* #,##0.00_ ;_ &quot;S/. &quot;* \-#,##0.00_ ;_ &quot;S/. &quot;* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="&quot;S/.&quot;\ #,##0"/>
+    <numFmt numFmtId="185" formatCode="_(&quot;S/.&quot;\ * #,##0.00_);_(&quot;S/.&quot;\ * \(#,##0.00\);_(&quot;S/.&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="186" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="188" formatCode="dd/mm/yyyy;\-"/>
+    <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="190" formatCode="&quot;S/.&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="114">
     <font>
@@ -2984,244 +2998,244 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -3231,41 +3245,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -3279,53 +3293,53 @@
     <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="59" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="59" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="59" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3337,25 +3351,25 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -3367,20 +3381,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="71" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -3397,19 +3411,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -3460,74 +3474,74 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -3554,7 +3568,7 @@
     <xf numFmtId="0" fontId="12" fillId="43" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="446">
@@ -3598,23 +3612,23 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="78" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="78" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="77" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="77" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="79" fillId="49" borderId="27" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="79" fillId="49" borderId="27" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3626,7 +3640,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="65" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="65" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3638,7 +3652,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3662,7 +3676,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="65" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="65" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3678,11 +3692,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="76" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="76" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3743,11 +3757,11 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="76" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="76" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3799,11 +3813,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3817,14 +3831,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="46" borderId="35" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="46" borderId="35" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="35" xfId="185" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3832,11 +3846,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3872,19 +3886,19 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="86" fillId="0" borderId="0" xfId="206" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="86" fillId="0" borderId="0" xfId="206" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="86" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="86" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="66" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="66" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3892,16 +3906,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4080,18 +4094,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="79" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="79" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="0" borderId="14" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4127,23 +4141,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4159,7 +4173,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -4183,7 +4197,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="92" fillId="46" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4295,7 +4309,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4510,7 +4524,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="67" fillId="46" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="67" fillId="46" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4530,11 +4544,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="67" fillId="0" borderId="30" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="67" fillId="0" borderId="30" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="67" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="67" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4562,7 +4576,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4570,15 +4584,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="69" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="69" fillId="0" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4586,11 +4600,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="48" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="48" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="0" borderId="36" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="36" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4598,11 +4612,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="87" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="87" fillId="46" borderId="0" xfId="185" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4737,7 +4751,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="0" borderId="36" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="92" fillId="0" borderId="36" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="3" fontId="76" fillId="0" borderId="36" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4772,7 +4786,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="36" xfId="220" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="76" fillId="0" borderId="36" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="76" fillId="0" borderId="36" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="45" borderId="10" xfId="220" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4811,10 +4825,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="92" fillId="0" borderId="0" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="92" fillId="0" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="92" fillId="0" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="76" fillId="46" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="76" fillId="46" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="45" borderId="14" xfId="220" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4849,7 +4863,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="45" borderId="11" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="92" fillId="45" borderId="11" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4918,7 +4932,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="67" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="190" fontId="67" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4926,7 +4940,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="59" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="59" borderId="0" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5022,7 +5036,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="63" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="63" fillId="46" borderId="30" xfId="185" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5118,23 +5132,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="49" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="84" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="87" fillId="54" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="54" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="49" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="79" fillId="49" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="49" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="79" fillId="49" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="56" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="47" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="52" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="79" fillId="49" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5142,26 +5184,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="51" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="55" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="49" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="49" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="49" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="49" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -5170,32 +5192,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="87" fillId="54" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="54" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="79" fillId="55" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="51" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="56" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="47" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="52" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="49" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5215,18 +5229,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="49" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="55" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="49" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5266,10 +5268,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="49" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="55" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="56" borderId="36" xfId="220" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="103" fillId="56" borderId="36" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="104" fillId="46" borderId="39" xfId="220" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -5282,558 +5300,554 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="103" fillId="56" borderId="36" xfId="220" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="546">
-    <cellStyle name="          _x000d__x000a_386grabber=VGA.3GR_x000d__x000a_" xfId="1"/>
-    <cellStyle name="_x0004_¥" xfId="388"/>
-    <cellStyle name="1" xfId="2"/>
-    <cellStyle name="20% - Accent1" xfId="3"/>
-    <cellStyle name="20% - Accent1 2" xfId="4"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="414"/>
-    <cellStyle name="20% - Accent1 3" xfId="415"/>
-    <cellStyle name="20% - Accent2" xfId="5"/>
-    <cellStyle name="20% - Accent2 2" xfId="6"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="416"/>
-    <cellStyle name="20% - Accent2 3" xfId="417"/>
-    <cellStyle name="20% - Accent3" xfId="7"/>
-    <cellStyle name="20% - Accent3 2" xfId="8"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="418"/>
-    <cellStyle name="20% - Accent3 3" xfId="419"/>
-    <cellStyle name="20% - Accent4" xfId="9"/>
-    <cellStyle name="20% - Accent4 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="420"/>
-    <cellStyle name="20% - Accent4 3" xfId="421"/>
-    <cellStyle name="20% - Accent5" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="422"/>
-    <cellStyle name="20% - Accent5 3" xfId="423"/>
-    <cellStyle name="20% - Accent6" xfId="13"/>
-    <cellStyle name="20% - Accent6 2" xfId="14"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="424"/>
-    <cellStyle name="20% - Accent6 3" xfId="425"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="15"/>
-    <cellStyle name="20% - Énfasis1 2 2" xfId="426"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="16"/>
-    <cellStyle name="20% - Énfasis2 2 2" xfId="427"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="17"/>
-    <cellStyle name="20% - Énfasis3 2 2" xfId="428"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="18"/>
-    <cellStyle name="20% - Énfasis4 2 2" xfId="429"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="19"/>
-    <cellStyle name="20% - Énfasis5 2 2" xfId="430"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="20"/>
-    <cellStyle name="20% - Énfasis6 2 2" xfId="431"/>
-    <cellStyle name="40% - Accent1" xfId="21"/>
-    <cellStyle name="40% - Accent1 2" xfId="22"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="432"/>
-    <cellStyle name="40% - Accent1 3" xfId="433"/>
-    <cellStyle name="40% - Accent2" xfId="23"/>
-    <cellStyle name="40% - Accent2 2" xfId="24"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="434"/>
-    <cellStyle name="40% - Accent2 3" xfId="435"/>
-    <cellStyle name="40% - Accent3" xfId="25"/>
-    <cellStyle name="40% - Accent3 2" xfId="26"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="436"/>
-    <cellStyle name="40% - Accent3 3" xfId="437"/>
-    <cellStyle name="40% - Accent4" xfId="27"/>
-    <cellStyle name="40% - Accent4 2" xfId="28"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="438"/>
-    <cellStyle name="40% - Accent4 3" xfId="439"/>
-    <cellStyle name="40% - Accent5" xfId="29"/>
-    <cellStyle name="40% - Accent5 2" xfId="30"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="440"/>
-    <cellStyle name="40% - Accent5 3" xfId="441"/>
-    <cellStyle name="40% - Accent6" xfId="31"/>
-    <cellStyle name="40% - Accent6 2" xfId="32"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="442"/>
-    <cellStyle name="40% - Accent6 3" xfId="443"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="33"/>
-    <cellStyle name="40% - Énfasis1 2 2" xfId="444"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="34"/>
-    <cellStyle name="40% - Énfasis2 2 2" xfId="445"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="35"/>
-    <cellStyle name="40% - Énfasis3 2 2" xfId="446"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="36"/>
-    <cellStyle name="40% - Énfasis4 2 2" xfId="447"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="37"/>
-    <cellStyle name="40% - Énfasis5 2 2" xfId="448"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="38"/>
-    <cellStyle name="40% - Énfasis6 2 2" xfId="449"/>
-    <cellStyle name="60% - Accent1" xfId="39"/>
-    <cellStyle name="60% - Accent2" xfId="40"/>
-    <cellStyle name="60% - Accent3" xfId="41"/>
-    <cellStyle name="60% - Accent4" xfId="42"/>
-    <cellStyle name="60% - Accent5" xfId="43"/>
-    <cellStyle name="60% - Accent6" xfId="44"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="45"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="46"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="47"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="49"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="50"/>
-    <cellStyle name="Accent1" xfId="51"/>
-    <cellStyle name="Accent2" xfId="52"/>
-    <cellStyle name="Accent3" xfId="53"/>
-    <cellStyle name="Accent4" xfId="54"/>
-    <cellStyle name="Accent5" xfId="55"/>
-    <cellStyle name="Accent6" xfId="56"/>
-    <cellStyle name="Bad" xfId="57"/>
-    <cellStyle name="Buena 2" xfId="58"/>
-    <cellStyle name="Calculation" xfId="59"/>
-    <cellStyle name="Cálculo 2" xfId="60"/>
-    <cellStyle name="Cancel" xfId="61"/>
-    <cellStyle name="Celda de comprobación 2" xfId="62"/>
-    <cellStyle name="Celda vinculada 2" xfId="63"/>
-    <cellStyle name="Check Cell" xfId="64"/>
-    <cellStyle name="Comma 2" xfId="363"/>
-    <cellStyle name="Comma 2 2" xfId="364"/>
-    <cellStyle name="Comma 2 2 2" xfId="450"/>
-    <cellStyle name="Comma 2 3" xfId="365"/>
-    <cellStyle name="Comma 2 3 2" xfId="451"/>
-    <cellStyle name="Comma 2 4" xfId="452"/>
-    <cellStyle name="Comma 3" xfId="366"/>
-    <cellStyle name="Comma 3 2" xfId="367"/>
-    <cellStyle name="Comma 3 2 2" xfId="454"/>
-    <cellStyle name="Comma 3 2 3" xfId="453"/>
-    <cellStyle name="Comma 3 3" xfId="455"/>
-    <cellStyle name="Comma 4" xfId="368"/>
-    <cellStyle name="Comma 4 2" xfId="456"/>
-    <cellStyle name="Currency 2" xfId="369"/>
-    <cellStyle name="Currency 2 2" xfId="370"/>
-    <cellStyle name="Currency 2 3" xfId="457"/>
-    <cellStyle name="Currency 3" xfId="371"/>
-    <cellStyle name="Diseño" xfId="65"/>
-    <cellStyle name="Diseño 2" xfId="545"/>
-    <cellStyle name="Encabezado 4 2" xfId="66"/>
-    <cellStyle name="Énfasis1 2" xfId="67"/>
-    <cellStyle name="Énfasis2 2" xfId="68"/>
-    <cellStyle name="Énfasis3 2" xfId="69"/>
-    <cellStyle name="Énfasis4 2" xfId="70"/>
-    <cellStyle name="Énfasis5 2" xfId="71"/>
-    <cellStyle name="Énfasis6 2" xfId="72"/>
-    <cellStyle name="Entrada 2" xfId="73"/>
-    <cellStyle name="Estilo 1" xfId="372"/>
-    <cellStyle name="Euro" xfId="74"/>
-    <cellStyle name="Euro 2" xfId="75"/>
-    <cellStyle name="Euro 2 2" xfId="76"/>
-    <cellStyle name="Euro 3" xfId="77"/>
-    <cellStyle name="Euro 3 2" xfId="78"/>
-    <cellStyle name="Euro 3 3" xfId="389"/>
-    <cellStyle name="Excel Built-in Comma" xfId="79"/>
-    <cellStyle name="Excel Built-in Comma 2" xfId="80"/>
-    <cellStyle name="Excel Built-in Comma 2 2" xfId="81"/>
-    <cellStyle name="Excel Built-in Comma 3" xfId="82"/>
-    <cellStyle name="Excel Built-in Comma 4" xfId="83"/>
-    <cellStyle name="Excel Built-in Comma 5" xfId="84"/>
-    <cellStyle name="Excel Built-in Currency" xfId="85"/>
-    <cellStyle name="Excel Built-in Hyperlink" xfId="86"/>
-    <cellStyle name="Excel Built-in Hyperlink 2" xfId="87"/>
-    <cellStyle name="Excel Built-in Normal" xfId="88"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="89"/>
-    <cellStyle name="Excel Built-in Normal 1 2" xfId="90"/>
-    <cellStyle name="Excel Built-in Normal 1 2 2" xfId="91"/>
-    <cellStyle name="Excel Built-in Normal 1 2 2 2" xfId="92"/>
-    <cellStyle name="Excel Built-in Normal 1 2 2 3" xfId="93"/>
-    <cellStyle name="Excel Built-in Normal 1 3" xfId="94"/>
-    <cellStyle name="Excel Built-in Normal 1 3 2" xfId="95"/>
-    <cellStyle name="Excel Built-in Normal 1 4" xfId="96"/>
-    <cellStyle name="Excel Built-in Normal 1 4 2" xfId="97"/>
-    <cellStyle name="Excel Built-in Normal 1 5" xfId="98"/>
-    <cellStyle name="Excel Built-in Normal 1 5 2" xfId="99"/>
-    <cellStyle name="Excel Built-in Normal 1 5 2 2" xfId="100"/>
-    <cellStyle name="Excel Built-in Normal 1 5 2 2 2" xfId="458"/>
-    <cellStyle name="Excel Built-in Normal 1 5 2 3" xfId="459"/>
-    <cellStyle name="Excel Built-in Normal 1 5 3" xfId="101"/>
-    <cellStyle name="Excel Built-in Normal 1 5 4" xfId="102"/>
-    <cellStyle name="Excel Built-in Normal 10" xfId="103"/>
-    <cellStyle name="Excel Built-in Normal 10 2" xfId="104"/>
-    <cellStyle name="Excel Built-in Normal 11" xfId="105"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="106"/>
-    <cellStyle name="Excel Built-in Normal 2 2" xfId="107"/>
-    <cellStyle name="Excel Built-in Normal 2 2 2" xfId="108"/>
-    <cellStyle name="Excel Built-in Normal 2 3" xfId="109"/>
-    <cellStyle name="Excel Built-in Normal 3" xfId="110"/>
-    <cellStyle name="Excel Built-in Normal 3 2" xfId="111"/>
-    <cellStyle name="Excel Built-in Normal 3 2 2" xfId="112"/>
-    <cellStyle name="Excel Built-in Normal 3 2 2 2" xfId="113"/>
-    <cellStyle name="Excel Built-in Normal 3 2 2 2 2" xfId="114"/>
-    <cellStyle name="Excel Built-in Normal 3 2 2 3" xfId="115"/>
-    <cellStyle name="Excel Built-in Normal 3 2 2_Horario TM" xfId="116"/>
-    <cellStyle name="Excel Built-in Normal 3 2 3" xfId="117"/>
-    <cellStyle name="Excel Built-in Normal 3 3" xfId="118"/>
-    <cellStyle name="Excel Built-in Normal 3 4" xfId="119"/>
-    <cellStyle name="Excel Built-in Normal 3 5" xfId="120"/>
-    <cellStyle name="Excel Built-in Normal 3 6" xfId="121"/>
-    <cellStyle name="Excel Built-in Normal 4" xfId="122"/>
-    <cellStyle name="Excel Built-in Normal 4 2" xfId="123"/>
-    <cellStyle name="Excel Built-in Normal 5" xfId="124"/>
-    <cellStyle name="Excel Built-in Normal 5 2" xfId="125"/>
-    <cellStyle name="Excel Built-in Normal 6" xfId="126"/>
-    <cellStyle name="Excel Built-in Normal 6 2" xfId="127"/>
-    <cellStyle name="Excel Built-in Normal 7" xfId="128"/>
-    <cellStyle name="Excel Built-in Normal 8" xfId="129"/>
-    <cellStyle name="Excel Built-in Normal 8 2" xfId="390"/>
-    <cellStyle name="Excel Built-in Normal 9" xfId="130"/>
-    <cellStyle name="Excel Built-in Normal_Horario TM" xfId="131"/>
-    <cellStyle name="Explanatory Text" xfId="132"/>
-    <cellStyle name="Good" xfId="133"/>
-    <cellStyle name="Heading" xfId="134"/>
-    <cellStyle name="Heading (user)" xfId="135"/>
-    <cellStyle name="Heading (user) 2" xfId="136"/>
-    <cellStyle name="Heading 1" xfId="137"/>
-    <cellStyle name="Heading 1 2" xfId="391"/>
-    <cellStyle name="Heading 10" xfId="138"/>
-    <cellStyle name="Heading 11" xfId="139"/>
-    <cellStyle name="Heading 2" xfId="140"/>
-    <cellStyle name="Heading 2 2" xfId="141"/>
-    <cellStyle name="Heading 2 3" xfId="392"/>
-    <cellStyle name="Heading 3" xfId="142"/>
-    <cellStyle name="Heading 3 2" xfId="143"/>
-    <cellStyle name="Heading 3 3" xfId="393"/>
-    <cellStyle name="Heading 4" xfId="144"/>
-    <cellStyle name="Heading 4 2" xfId="145"/>
-    <cellStyle name="Heading 4 3" xfId="394"/>
-    <cellStyle name="Heading 5" xfId="146"/>
-    <cellStyle name="Heading 5 2" xfId="147"/>
-    <cellStyle name="Heading 6" xfId="148"/>
-    <cellStyle name="Heading 6 2" xfId="149"/>
-    <cellStyle name="Heading 7" xfId="150"/>
-    <cellStyle name="Heading 7 2" xfId="151"/>
-    <cellStyle name="Heading 8" xfId="152"/>
-    <cellStyle name="Heading 8 2" xfId="153"/>
-    <cellStyle name="Heading 9" xfId="154"/>
-    <cellStyle name="Heading 9 2" xfId="155"/>
-    <cellStyle name="Heading1" xfId="156"/>
-    <cellStyle name="Heading1 (user)" xfId="157"/>
-    <cellStyle name="Heading1 (user) 2" xfId="158"/>
-    <cellStyle name="Heading1 1" xfId="159"/>
-    <cellStyle name="Heading1 10" xfId="160"/>
-    <cellStyle name="Heading1 11" xfId="161"/>
-    <cellStyle name="Heading1 2" xfId="162"/>
-    <cellStyle name="Heading1 2 2" xfId="163"/>
-    <cellStyle name="Heading1 3" xfId="164"/>
-    <cellStyle name="Heading1 3 2" xfId="165"/>
-    <cellStyle name="Heading1 4" xfId="166"/>
-    <cellStyle name="Heading1 4 2" xfId="167"/>
-    <cellStyle name="Heading1 5" xfId="168"/>
-    <cellStyle name="Heading1 5 2" xfId="169"/>
-    <cellStyle name="Heading1 6" xfId="170"/>
-    <cellStyle name="Heading1 6 2" xfId="171"/>
-    <cellStyle name="Heading1 7" xfId="172"/>
-    <cellStyle name="Heading1 7 2" xfId="173"/>
-    <cellStyle name="Heading1 8" xfId="174"/>
-    <cellStyle name="Heading1 8 2" xfId="175"/>
-    <cellStyle name="Heading1 9" xfId="176"/>
-    <cellStyle name="Heading1 9 2" xfId="177"/>
-    <cellStyle name="Hipervínculo 2" xfId="178"/>
-    <cellStyle name="Hipervínculo 2 2" xfId="179"/>
-    <cellStyle name="Hipervínculo 3" xfId="180"/>
-    <cellStyle name="Hipervínculo 3 2" xfId="181"/>
-    <cellStyle name="Incorrecto 2" xfId="182"/>
-    <cellStyle name="Input" xfId="183"/>
-    <cellStyle name="Linked Cell" xfId="184"/>
+    <cellStyle name="          _x000d__x000a_386grabber=VGA.3GR_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_x0004_¥" xfId="388" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="414" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="415" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="416" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="417" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="419" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="421" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="423" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent6" xfId="13" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="425" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Énfasis1 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Énfasis2 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Énfasis3 2 2" xfId="428" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Énfasis4 2 2" xfId="429" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Énfasis5 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Énfasis6 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Accent1" xfId="21" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="432" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="433" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent2" xfId="23" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="434" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="435" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="40% - Accent3" xfId="25" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="436" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="437" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="40% - Accent4" xfId="27" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="439" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - Accent5" xfId="29" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="440" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="441" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - Accent6" xfId="31" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="442" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="443" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - Énfasis1 2 2" xfId="444" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - Énfasis2 2 2" xfId="445" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - Énfasis3 2 2" xfId="446" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - Énfasis4 2 2" xfId="447" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - Énfasis5 2 2" xfId="448" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Énfasis6 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="60% - Accent1" xfId="39" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="60% - Accent2" xfId="40" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="60% - Accent3" xfId="41" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="60% - Accent4" xfId="42" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="60% - Accent5" xfId="43" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="60% - Accent6" xfId="44" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Accent1" xfId="51" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Accent2" xfId="52" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Accent3" xfId="53" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Accent4" xfId="54" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Accent5" xfId="55" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Accent6" xfId="56" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Bad" xfId="57" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Buena 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Calculation" xfId="59" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Cálculo 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Cancel" xfId="61" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Celda de comprobación 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Celda vinculada 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Check Cell" xfId="64" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Comma 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Comma 2 2" xfId="364" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Comma 2 3" xfId="365" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Comma 2 3 2" xfId="451" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Comma 2 4" xfId="452" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Comma 3" xfId="366" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Comma 3 2" xfId="367" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="454" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Comma 3 3" xfId="455" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Comma 4" xfId="368" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Comma 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Currency 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Currency 2 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Currency 2 3" xfId="457" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Currency 3" xfId="371" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Diseño" xfId="65" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Diseño 2" xfId="545" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Encabezado 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Énfasis1 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Énfasis2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Énfasis3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Énfasis4 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Énfasis5 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Énfasis6 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Entrada 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Estilo 1" xfId="372" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Euro" xfId="74" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Euro 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Euro 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Euro 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Euro 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Euro 3 3" xfId="389" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Excel Built-in Comma" xfId="79" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Excel Built-in Comma 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Excel Built-in Comma 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Excel Built-in Comma 3" xfId="82" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Excel Built-in Comma 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Excel Built-in Comma 5" xfId="84" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Excel Built-in Currency" xfId="85" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Excel Built-in Hyperlink" xfId="86" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Excel Built-in Hyperlink 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="88" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="89" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 2 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 2 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 3" xfId="94" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 3 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5" xfId="98" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 2 2 2" xfId="458" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 2 3" xfId="459" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Excel Built-in Normal 1 5 4" xfId="102" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Excel Built-in Normal 10" xfId="103" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Excel Built-in Normal 10 2" xfId="104" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Excel Built-in Normal 11" xfId="105" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="106" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Excel Built-in Normal 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Excel Built-in Normal 2 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Excel Built-in Normal 2 3" xfId="109" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Excel Built-in Normal 3" xfId="110" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 2 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 2_Horario TM" xfId="116" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 2 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 4" xfId="119" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 5" xfId="120" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Excel Built-in Normal 3 6" xfId="121" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Excel Built-in Normal 4" xfId="122" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Excel Built-in Normal 4 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Excel Built-in Normal 5" xfId="124" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Excel Built-in Normal 5 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Excel Built-in Normal 6" xfId="126" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Excel Built-in Normal 6 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Excel Built-in Normal 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Excel Built-in Normal 8" xfId="129" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Excel Built-in Normal 8 2" xfId="390" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Excel Built-in Normal 9" xfId="130" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Excel Built-in Normal_Horario TM" xfId="131" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Explanatory Text" xfId="132" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Good" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Heading" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Heading (user)" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Heading (user) 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Heading 1" xfId="137" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Heading 1 2" xfId="391" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Heading 10" xfId="138" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Heading 11" xfId="139" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Heading 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Heading 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Heading 2 3" xfId="392" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Heading 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Heading 3 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Heading 3 3" xfId="393" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Heading 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Heading 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Heading 4 3" xfId="394" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Heading 5" xfId="146" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Heading 5 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Heading 6" xfId="148" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Heading 6 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Heading 7" xfId="150" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Heading 7 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Heading 8" xfId="152" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Heading 8 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Heading 9" xfId="154" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Heading 9 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Heading1" xfId="156" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Heading1 (user)" xfId="157" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Heading1 (user) 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Heading1 1" xfId="159" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Heading1 10" xfId="160" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Heading1 11" xfId="161" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Heading1 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Heading1 2 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Heading1 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Heading1 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Heading1 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Heading1 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Heading1 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Heading1 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Heading1 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Heading1 6 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Heading1 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Heading1 7 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Heading1 8" xfId="174" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Heading1 8 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Heading1 9" xfId="176" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Heading1 9 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Hipervínculo 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Hipervínculo 3 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Incorrecto 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Input" xfId="183" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Linked Cell" xfId="184" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Millares" xfId="185" builtinId="3"/>
-    <cellStyle name="Millares 10" xfId="186"/>
-    <cellStyle name="Millares 10 2" xfId="337"/>
-    <cellStyle name="Millares 10 2 2" xfId="460"/>
-    <cellStyle name="Millares 10 3" xfId="461"/>
-    <cellStyle name="Millares 11" xfId="187"/>
-    <cellStyle name="Millares 11 2" xfId="338"/>
-    <cellStyle name="Millares 11 2 2" xfId="462"/>
-    <cellStyle name="Millares 11 3" xfId="463"/>
-    <cellStyle name="Millares 12" xfId="188"/>
-    <cellStyle name="Millares 12 2" xfId="339"/>
-    <cellStyle name="Millares 12 2 2" xfId="464"/>
-    <cellStyle name="Millares 12 3" xfId="340"/>
-    <cellStyle name="Millares 12 3 2" xfId="465"/>
-    <cellStyle name="Millares 12 4" xfId="466"/>
-    <cellStyle name="Millares 13" xfId="335"/>
-    <cellStyle name="Millares 13 2" xfId="468"/>
-    <cellStyle name="Millares 13 3" xfId="467"/>
-    <cellStyle name="Millares 14" xfId="341"/>
-    <cellStyle name="Millares 14 2" xfId="470"/>
-    <cellStyle name="Millares 14 3" xfId="469"/>
-    <cellStyle name="Millares 15" xfId="342"/>
-    <cellStyle name="Millares 15 2" xfId="471"/>
-    <cellStyle name="Millares 16" xfId="343"/>
-    <cellStyle name="Millares 16 2" xfId="472"/>
-    <cellStyle name="Millares 17" xfId="344"/>
-    <cellStyle name="Millares 17 2" xfId="474"/>
-    <cellStyle name="Millares 17 3" xfId="473"/>
-    <cellStyle name="Millares 18" xfId="395"/>
-    <cellStyle name="Millares 18 2" xfId="475"/>
-    <cellStyle name="Millares 19" xfId="476"/>
-    <cellStyle name="Millares 19 2" xfId="477"/>
-    <cellStyle name="Millares 2" xfId="189"/>
-    <cellStyle name="Millares 2 2" xfId="190"/>
-    <cellStyle name="Millares 2 2 2" xfId="191"/>
-    <cellStyle name="Millares 2 2 2 2" xfId="192"/>
-    <cellStyle name="Millares 2 2 2 3" xfId="396"/>
-    <cellStyle name="Millares 2 2 2 4" xfId="479"/>
-    <cellStyle name="Millares 2 2 3" xfId="193"/>
-    <cellStyle name="Millares 2 2 4" xfId="373"/>
-    <cellStyle name="Millares 2 2 4 2" xfId="480"/>
-    <cellStyle name="Millares 2 3" xfId="194"/>
-    <cellStyle name="Millares 2 3 2" xfId="195"/>
-    <cellStyle name="Millares 2 3 3" xfId="481"/>
-    <cellStyle name="Millares 2 3 3 2" xfId="482"/>
-    <cellStyle name="Millares 2 4" xfId="196"/>
-    <cellStyle name="Millares 2 4 2" xfId="345"/>
-    <cellStyle name="Millares 2 4 2 2" xfId="484"/>
-    <cellStyle name="Millares 2 4 3" xfId="483"/>
-    <cellStyle name="Millares 2 5" xfId="197"/>
-    <cellStyle name="Millares 2 5 2" xfId="485"/>
-    <cellStyle name="Millares 2 6" xfId="346"/>
-    <cellStyle name="Millares 2 6 2" xfId="486"/>
-    <cellStyle name="Millares 2 7" xfId="487"/>
-    <cellStyle name="Millares 2 7 2" xfId="488"/>
-    <cellStyle name="Millares 2 8" xfId="478"/>
-    <cellStyle name="Millares 20" xfId="489"/>
-    <cellStyle name="Millares 24" xfId="544"/>
-    <cellStyle name="Millares 3" xfId="198"/>
-    <cellStyle name="Millares 3 2" xfId="199"/>
-    <cellStyle name="Millares 3 3" xfId="200"/>
-    <cellStyle name="Millares 3 3 2" xfId="347"/>
-    <cellStyle name="Millares 3 3 2 2" xfId="492"/>
-    <cellStyle name="Millares 3 3 2 3" xfId="491"/>
-    <cellStyle name="Millares 3 3 3" xfId="493"/>
-    <cellStyle name="Millares 3 3 4" xfId="490"/>
-    <cellStyle name="Millares 3 4" xfId="201"/>
-    <cellStyle name="Millares 3 4 2" xfId="202"/>
-    <cellStyle name="Millares 3 4 2 2" xfId="494"/>
-    <cellStyle name="Millares 3 4 3" xfId="495"/>
-    <cellStyle name="Millares 3 5" xfId="203"/>
-    <cellStyle name="Millares 3 5 2" xfId="496"/>
-    <cellStyle name="Millares 3 6" xfId="497"/>
-    <cellStyle name="Millares 4" xfId="204"/>
-    <cellStyle name="Millares 4 2" xfId="333"/>
-    <cellStyle name="Millares 4 2 2" xfId="387"/>
-    <cellStyle name="Millares 4 2 2 2" xfId="500"/>
-    <cellStyle name="Millares 4 2 2 3" xfId="499"/>
-    <cellStyle name="Millares 4 2 3" xfId="501"/>
-    <cellStyle name="Millares 4 2 3 2" xfId="502"/>
-    <cellStyle name="Millares 4 2 4" xfId="503"/>
-    <cellStyle name="Millares 4 2 5" xfId="498"/>
-    <cellStyle name="Millares 5" xfId="205"/>
-    <cellStyle name="Millares 5 2" xfId="348"/>
-    <cellStyle name="Millares 5 2 2" xfId="506"/>
-    <cellStyle name="Millares 5 2 3" xfId="505"/>
-    <cellStyle name="Millares 5 3" xfId="507"/>
-    <cellStyle name="Millares 5 4" xfId="504"/>
-    <cellStyle name="Millares 6" xfId="206"/>
-    <cellStyle name="Millares 7" xfId="207"/>
-    <cellStyle name="Millares 7 2" xfId="208"/>
-    <cellStyle name="Millares 7 2 2" xfId="508"/>
-    <cellStyle name="Millares 7 3" xfId="397"/>
-    <cellStyle name="Millares 7 3 2" xfId="509"/>
-    <cellStyle name="Millares 7 4" xfId="510"/>
-    <cellStyle name="Millares 8" xfId="209"/>
-    <cellStyle name="Millares 8 2" xfId="210"/>
-    <cellStyle name="Millares 8 2 2" xfId="511"/>
-    <cellStyle name="Millares 8 3" xfId="398"/>
-    <cellStyle name="Millares 8 3 2" xfId="512"/>
-    <cellStyle name="Millares 8 4" xfId="513"/>
-    <cellStyle name="Millares 9" xfId="211"/>
-    <cellStyle name="Millares 9 2" xfId="374"/>
-    <cellStyle name="Millares 9 2 2" xfId="514"/>
-    <cellStyle name="Millares 9 3" xfId="515"/>
-    <cellStyle name="Moneda 2" xfId="212"/>
-    <cellStyle name="Moneda 2 2" xfId="213"/>
-    <cellStyle name="Moneda 2 3" xfId="214"/>
-    <cellStyle name="Moneda 2 4" xfId="349"/>
-    <cellStyle name="Moneda 2 4 2" xfId="517"/>
-    <cellStyle name="Moneda 2 5" xfId="516"/>
-    <cellStyle name="Moneda 3" xfId="215"/>
-    <cellStyle name="Moneda 4" xfId="216"/>
-    <cellStyle name="Moneda 4 2" xfId="350"/>
-    <cellStyle name="Moneda 5" xfId="217"/>
-    <cellStyle name="Moneda 5 2" xfId="351"/>
-    <cellStyle name="Moneda 6" xfId="399"/>
-    <cellStyle name="Neutral 2" xfId="218"/>
+    <cellStyle name="Millares 10" xfId="186" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Millares 10 2" xfId="337" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Millares 10 2 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Millares 10 3" xfId="461" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Millares 11" xfId="187" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Millares 11 2" xfId="338" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Millares 11 2 2" xfId="462" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Millares 11 3" xfId="463" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Millares 12" xfId="188" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Millares 12 2" xfId="339" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Millares 12 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Millares 12 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Millares 12 3 2" xfId="465" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Millares 12 4" xfId="466" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Millares 13" xfId="335" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Millares 13 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Millares 13 3" xfId="467" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Millares 14" xfId="341" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Millares 14 2" xfId="470" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Millares 14 3" xfId="469" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Millares 15" xfId="342" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Millares 15 2" xfId="471" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Millares 16" xfId="343" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Millares 16 2" xfId="472" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Millares 17" xfId="344" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Millares 17 2" xfId="474" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Millares 17 3" xfId="473" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Millares 18" xfId="395" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Millares 18 2" xfId="475" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Millares 19" xfId="476" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Millares 19 2" xfId="477" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Millares 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Millares 2 2" xfId="190" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="191" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Millares 2 2 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Millares 2 2 2 3" xfId="396" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Millares 2 2 2 4" xfId="479" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Millares 2 2 3" xfId="193" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Millares 2 2 4" xfId="373" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Millares 2 2 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Millares 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Millares 2 3 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Millares 2 3 3" xfId="481" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Millares 2 3 3 2" xfId="482" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Millares 2 4" xfId="196" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Millares 2 4 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Millares 2 4 2 2" xfId="484" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Millares 2 4 3" xfId="483" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Millares 2 5" xfId="197" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Millares 2 5 2" xfId="485" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Millares 2 6" xfId="346" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Millares 2 6 2" xfId="486" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Millares 2 7" xfId="487" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Millares 2 7 2" xfId="488" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Millares 2 8" xfId="478" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Millares 20" xfId="489" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Millares 24" xfId="544" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Millares 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Millares 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Millares 3 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Millares 3 3 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Millares 3 3 2 2" xfId="492" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Millares 3 3 2 3" xfId="491" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Millares 3 3 3" xfId="493" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Millares 3 3 4" xfId="490" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Millares 3 4" xfId="201" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Millares 3 4 2" xfId="202" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Millares 3 4 2 2" xfId="494" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Millares 3 4 3" xfId="495" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Millares 3 5" xfId="203" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Millares 3 5 2" xfId="496" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Millares 3 6" xfId="497" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Millares 4" xfId="204" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Millares 4 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Millares 4 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Millares 4 2 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Millares 4 2 2 3" xfId="499" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Millares 4 2 3" xfId="501" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Millares 4 2 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Millares 4 2 4" xfId="503" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Millares 4 2 5" xfId="498" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Millares 5" xfId="205" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Millares 5 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Millares 5 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Millares 5 2 3" xfId="505" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Millares 5 3" xfId="507" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Millares 5 4" xfId="504" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Millares 6" xfId="206" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Millares 7" xfId="207" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Millares 7 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Millares 7 2 2" xfId="508" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Millares 7 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Millares 7 3 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Millares 7 4" xfId="510" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Millares 8" xfId="209" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Millares 8 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Millares 8 2 2" xfId="511" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Millares 8 3" xfId="398" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Millares 8 3 2" xfId="512" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Millares 8 4" xfId="513" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Millares 9" xfId="211" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Millares 9 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Millares 9 2 2" xfId="514" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Millares 9 3" xfId="515" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Moneda 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Moneda 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Moneda 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Moneda 2 4" xfId="349" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Moneda 2 4 2" xfId="517" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Moneda 2 5" xfId="516" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Moneda 3" xfId="215" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Moneda 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Moneda 4 2" xfId="350" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Moneda 5" xfId="217" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Moneda 5 2" xfId="351" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Moneda 6" xfId="399" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Neutral 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="219"/>
-    <cellStyle name="Normal 10 2" xfId="220"/>
-    <cellStyle name="Normal 10 3" xfId="400"/>
-    <cellStyle name="Normal 11" xfId="221"/>
-    <cellStyle name="Normal 12" xfId="334"/>
-    <cellStyle name="Normal 12 2" xfId="375"/>
-    <cellStyle name="Normal 12 3" xfId="518"/>
-    <cellStyle name="Normal 13" xfId="352"/>
-    <cellStyle name="Normal 13 2" xfId="519"/>
-    <cellStyle name="Normal 14" xfId="353"/>
-    <cellStyle name="Normal 15" xfId="222"/>
-    <cellStyle name="Normal 16" xfId="354"/>
-    <cellStyle name="Normal 16 2" xfId="385"/>
-    <cellStyle name="Normal 16 3" xfId="407"/>
-    <cellStyle name="Normal 16 4" xfId="520"/>
-    <cellStyle name="Normal 17" xfId="223"/>
-    <cellStyle name="Normal 18" xfId="401"/>
-    <cellStyle name="Normal 18 2" xfId="521"/>
-    <cellStyle name="Normal 19" xfId="409"/>
-    <cellStyle name="Normal 19 2" xfId="523"/>
-    <cellStyle name="Normal 19 3" xfId="522"/>
-    <cellStyle name="Normal 2" xfId="224"/>
-    <cellStyle name="Normal 2 10" xfId="362"/>
-    <cellStyle name="Normal 2 2" xfId="225"/>
-    <cellStyle name="Normal 2 2 2" xfId="226"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="227"/>
-    <cellStyle name="Normal 2 2 3" xfId="228"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="229"/>
-    <cellStyle name="Normal 2 2 4" xfId="230"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="231"/>
-    <cellStyle name="Normal 2 2 5" xfId="376"/>
-    <cellStyle name="Normal 2 2 5 2" xfId="524"/>
-    <cellStyle name="Normal 2 3" xfId="232"/>
-    <cellStyle name="Normal 2 3 2" xfId="233"/>
-    <cellStyle name="Normal 2 4" xfId="234"/>
-    <cellStyle name="Normal 2 5" xfId="235"/>
-    <cellStyle name="Normal 2 6" xfId="236"/>
-    <cellStyle name="Normal 2 7" xfId="402"/>
-    <cellStyle name="Normal 20" xfId="410"/>
-    <cellStyle name="Normal 20 2" xfId="526"/>
-    <cellStyle name="Normal 20 3" xfId="525"/>
-    <cellStyle name="Normal 21" xfId="412"/>
-    <cellStyle name="Normal 21 2" xfId="527"/>
-    <cellStyle name="Normal 23" xfId="528"/>
-    <cellStyle name="Normal 24 3" xfId="543"/>
-    <cellStyle name="Normal 26 2" xfId="542"/>
-    <cellStyle name="Normal 3" xfId="237"/>
-    <cellStyle name="Normal 3 2" xfId="238"/>
-    <cellStyle name="Normal 3 3" xfId="239"/>
-    <cellStyle name="Normal 3 3 2" xfId="240"/>
-    <cellStyle name="Normal 3 4" xfId="241"/>
-    <cellStyle name="Normal 3 4 2" xfId="332"/>
-    <cellStyle name="Normal 3 4 2 2" xfId="386"/>
-    <cellStyle name="Normal 3 4 2 2 2" xfId="411"/>
-    <cellStyle name="Normal 3 4 2 2 3" xfId="413"/>
-    <cellStyle name="Normal 3 4 2 2 4" xfId="532"/>
-    <cellStyle name="Normal 3 4 2 3" xfId="531"/>
-    <cellStyle name="Normal 3 4 3" xfId="530"/>
-    <cellStyle name="Normal 3 5" xfId="355"/>
-    <cellStyle name="Normal 3 5 2" xfId="533"/>
-    <cellStyle name="Normal 3 6" xfId="356"/>
-    <cellStyle name="Normal 3 6 2" xfId="534"/>
-    <cellStyle name="Normal 3 7" xfId="336"/>
-    <cellStyle name="Normal 3 7 2" xfId="359"/>
-    <cellStyle name="Normal 3 7 2 2" xfId="536"/>
-    <cellStyle name="Normal 3 7 3" xfId="535"/>
-    <cellStyle name="Normal 3 8" xfId="403"/>
-    <cellStyle name="Normal 3 8 2" xfId="537"/>
-    <cellStyle name="Normal 3 9" xfId="529"/>
-    <cellStyle name="Normal 4" xfId="242"/>
-    <cellStyle name="Normal 4 2" xfId="243"/>
-    <cellStyle name="Normal 4 2 2" xfId="244"/>
-    <cellStyle name="Normal 4 3" xfId="245"/>
-    <cellStyle name="Normal 4 4" xfId="246"/>
-    <cellStyle name="Normal 4 5" xfId="247"/>
-    <cellStyle name="Normal 4 5 2" xfId="404"/>
-    <cellStyle name="Normal 4 5 3" xfId="538"/>
-    <cellStyle name="Normal 4 6" xfId="539"/>
-    <cellStyle name="Normal 5" xfId="248"/>
-    <cellStyle name="Normal 5 2" xfId="249"/>
-    <cellStyle name="Normal 5 2 2" xfId="250"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="251"/>
-    <cellStyle name="Normal 5 2 3" xfId="252"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="253"/>
-    <cellStyle name="Normal 5 2 4" xfId="254"/>
-    <cellStyle name="Normal 5 3" xfId="255"/>
-    <cellStyle name="Normal 5 3 2" xfId="256"/>
-    <cellStyle name="Normal 5 4" xfId="257"/>
-    <cellStyle name="Normal 5 5" xfId="377"/>
-    <cellStyle name="Normal 5 6" xfId="378"/>
-    <cellStyle name="Normal 6" xfId="258"/>
-    <cellStyle name="Normal 6 2" xfId="259"/>
-    <cellStyle name="Normal 7" xfId="260"/>
-    <cellStyle name="Normal 7 2" xfId="261"/>
-    <cellStyle name="Normal 8" xfId="262"/>
-    <cellStyle name="Normal 8 2" xfId="263"/>
-    <cellStyle name="Normal 8 3" xfId="405"/>
-    <cellStyle name="Normal 9" xfId="264"/>
-    <cellStyle name="Normal 9 2" xfId="406"/>
-    <cellStyle name="Normal_201405_1" xfId="360"/>
-    <cellStyle name="Notas 2" xfId="265"/>
-    <cellStyle name="Note" xfId="266"/>
-    <cellStyle name="Note 2" xfId="267"/>
-    <cellStyle name="Note 2 2" xfId="540"/>
-    <cellStyle name="Note 3" xfId="541"/>
-    <cellStyle name="Output" xfId="268"/>
+    <cellStyle name="Normal 10" xfId="219" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 10 2" xfId="220" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 10 3" xfId="400" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 11" xfId="221" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 12" xfId="334" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 12 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 12 3" xfId="518" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 13" xfId="352" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 13 2" xfId="519" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 14" xfId="353" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 15" xfId="222" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 16" xfId="354" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 16 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 16 3" xfId="407" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 16 4" xfId="520" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 17" xfId="223" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 18" xfId="401" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 18 2" xfId="521" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 19" xfId="409" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 19 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 19 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 2 10" xfId="362" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="376" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="524" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 2 3" xfId="232" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 2 4" xfId="234" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 2 5" xfId="235" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 2 6" xfId="236" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 2 7" xfId="402" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 20" xfId="410" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 20 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 20 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 21" xfId="412" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 21 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 23" xfId="528" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 24 3" xfId="543" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 26 2" xfId="542" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 3 3" xfId="239" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 3 4" xfId="241" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="332" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 3 4 2 2 3" xfId="413" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 3 4 2 2 4" xfId="532" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 3 4 2 3" xfId="531" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="530" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 3 5" xfId="355" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 3 5 2" xfId="533" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 3 6" xfId="356" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="534" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 3 7" xfId="336" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 3 7 2" xfId="359" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 3 7 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 3 7 3" xfId="535" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 3 8" xfId="403" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 3 8 2" xfId="537" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 3 9" xfId="529" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 4" xfId="242" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 4 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 4 3" xfId="245" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 4 4" xfId="246" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 4 5" xfId="247" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="404" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 4 5 3" xfId="538" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 4 6" xfId="539" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 5" xfId="248" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 5 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 5 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 5 5" xfId="377" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 5 6" xfId="378" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 6" xfId="258" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 6 2" xfId="259" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 7" xfId="260" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 7 2" xfId="261" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 8" xfId="262" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 8 2" xfId="263" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 8 3" xfId="405" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 9" xfId="264" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 9 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal_201405_1" xfId="360" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Notas 2" xfId="265" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Note" xfId="266" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Note 2" xfId="267" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Note 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Note 3" xfId="541" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Output" xfId="268" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
     <cellStyle name="Porcentaje" xfId="361" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="269"/>
-    <cellStyle name="Porcentaje 2 2" xfId="270"/>
-    <cellStyle name="Porcentaje 3" xfId="271"/>
-    <cellStyle name="Porcentaje 3 2" xfId="357"/>
-    <cellStyle name="Porcentaje 4" xfId="272"/>
-    <cellStyle name="Porcentaje 4 2" xfId="358"/>
-    <cellStyle name="Porcentaje 5" xfId="379"/>
-    <cellStyle name="Porcentaje 6" xfId="380"/>
-    <cellStyle name="Porcentaje 7" xfId="381"/>
-    <cellStyle name="Porcentaje 8" xfId="408"/>
-    <cellStyle name="PSChar" xfId="382"/>
-    <cellStyle name="Result" xfId="273"/>
-    <cellStyle name="Result (user)" xfId="274"/>
-    <cellStyle name="Result (user) 2" xfId="275"/>
-    <cellStyle name="Result 1" xfId="276"/>
-    <cellStyle name="Result 10" xfId="277"/>
-    <cellStyle name="Result 11" xfId="278"/>
-    <cellStyle name="Result 2" xfId="279"/>
-    <cellStyle name="Result 2 2" xfId="280"/>
-    <cellStyle name="Result 3" xfId="281"/>
-    <cellStyle name="Result 3 2" xfId="282"/>
-    <cellStyle name="Result 4" xfId="283"/>
-    <cellStyle name="Result 4 2" xfId="284"/>
-    <cellStyle name="Result 5" xfId="285"/>
-    <cellStyle name="Result 5 2" xfId="286"/>
-    <cellStyle name="Result 6" xfId="287"/>
-    <cellStyle name="Result 6 2" xfId="288"/>
-    <cellStyle name="Result 7" xfId="289"/>
-    <cellStyle name="Result 7 2" xfId="290"/>
-    <cellStyle name="Result 8" xfId="291"/>
-    <cellStyle name="Result 8 2" xfId="292"/>
-    <cellStyle name="Result 9" xfId="293"/>
-    <cellStyle name="Result 9 2" xfId="294"/>
-    <cellStyle name="Result2" xfId="295"/>
-    <cellStyle name="Result2 (user)" xfId="296"/>
-    <cellStyle name="Result2 1" xfId="297"/>
-    <cellStyle name="Result2 10" xfId="298"/>
-    <cellStyle name="Result2 10 2" xfId="299"/>
-    <cellStyle name="Result2 11" xfId="300"/>
-    <cellStyle name="Result2 11 2" xfId="301"/>
-    <cellStyle name="Result2 12" xfId="302"/>
-    <cellStyle name="Result2 12 2" xfId="303"/>
-    <cellStyle name="Result2 13" xfId="304"/>
-    <cellStyle name="Result2 14" xfId="305"/>
-    <cellStyle name="Result2 15" xfId="306"/>
-    <cellStyle name="Result2 16" xfId="307"/>
-    <cellStyle name="Result2 2" xfId="308"/>
-    <cellStyle name="Result2 2 2" xfId="309"/>
-    <cellStyle name="Result2 3" xfId="310"/>
-    <cellStyle name="Result2 4" xfId="311"/>
-    <cellStyle name="Result2 4 2" xfId="312"/>
-    <cellStyle name="Result2 5" xfId="313"/>
-    <cellStyle name="Result2 5 2" xfId="314"/>
-    <cellStyle name="Result2 6" xfId="315"/>
-    <cellStyle name="Result2 6 2" xfId="316"/>
-    <cellStyle name="Result2 7" xfId="317"/>
-    <cellStyle name="Result2 8" xfId="318"/>
-    <cellStyle name="Result2 8 2" xfId="319"/>
-    <cellStyle name="Result2 9" xfId="320"/>
-    <cellStyle name="Result2 9 2" xfId="321"/>
-    <cellStyle name="Salida 2" xfId="322"/>
-    <cellStyle name="Style 1" xfId="383"/>
-    <cellStyle name="Style 1 2" xfId="384"/>
-    <cellStyle name="Texto de advertencia 2" xfId="323"/>
-    <cellStyle name="Texto explicativo 2" xfId="324"/>
-    <cellStyle name="Title" xfId="325"/>
-    <cellStyle name="Título 1 2" xfId="326"/>
-    <cellStyle name="Título 2 2" xfId="327"/>
-    <cellStyle name="Título 3 2" xfId="328"/>
-    <cellStyle name="Título 4" xfId="329"/>
-    <cellStyle name="Total 2" xfId="330"/>
-    <cellStyle name="Warning Text" xfId="331"/>
+    <cellStyle name="Porcentaje 2" xfId="269" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Porcentaje 3" xfId="271" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Porcentaje 3 2" xfId="357" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Porcentaje 4" xfId="272" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Porcentaje 4 2" xfId="358" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Porcentaje 5" xfId="379" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Porcentaje 6" xfId="380" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Porcentaje 7" xfId="381" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Porcentaje 8" xfId="408" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="PSChar" xfId="382" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Result" xfId="273" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Result (user)" xfId="274" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Result (user) 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Result 1" xfId="276" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Result 10" xfId="277" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Result 11" xfId="278" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Result 2" xfId="279" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Result 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Result 3" xfId="281" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Result 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Result 4" xfId="283" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Result 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Result 5" xfId="285" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Result 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Result 6" xfId="287" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Result 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Result 7" xfId="289" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Result 7 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Result 8" xfId="291" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Result 8 2" xfId="292" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Result 9" xfId="293" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Result 9 2" xfId="294" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Result2" xfId="295" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Result2 (user)" xfId="296" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Result2 1" xfId="297" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Result2 10" xfId="298" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Result2 10 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Result2 11" xfId="300" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Result2 11 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Result2 12" xfId="302" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Result2 12 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Result2 13" xfId="304" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Result2 14" xfId="305" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Result2 15" xfId="306" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Result2 16" xfId="307" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Result2 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Result2 2 2" xfId="309" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Result2 3" xfId="310" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Result2 4" xfId="311" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Result2 4 2" xfId="312" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Result2 5" xfId="313" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Result2 5 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Result2 6" xfId="315" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Result2 6 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Result2 7" xfId="317" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Result2 8" xfId="318" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Result2 8 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Result2 9" xfId="320" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Result2 9 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Salida 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Style 1" xfId="383" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Style 1 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Texto de advertencia 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Texto explicativo 2" xfId="324" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Title" xfId="325" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Título 1 2" xfId="326" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Título 2 2" xfId="327" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Título 3 2" xfId="328" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Título 4" xfId="329" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Total 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Warning Text" xfId="331" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -10427,7 +10441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10460,9 +10474,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10495,6 +10526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10670,14 +10718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FO20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="FL13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="12" topLeftCell="FI13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="GR5" sqref="GR5"/>
       <selection pane="topRight" activeCell="GR5" sqref="GR5"/>
       <selection pane="bottomLeft" activeCell="GR5" sqref="GR5"/>
@@ -10691,7 +10739,7 @@
     <col min="3" max="3" width="8.7109375" style="156" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="156" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="159" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="156" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" style="156" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="159" customWidth="1"/>
     <col min="8" max="8" width="48.42578125" style="159" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="159" hidden="1" customWidth="1"/>
@@ -10766,7 +10814,9 @@
     <col min="159" max="160" width="14.5703125" style="153" hidden="1" customWidth="1"/>
     <col min="161" max="162" width="14.5703125" style="156" hidden="1" customWidth="1"/>
     <col min="163" max="164" width="14.5703125" style="153" hidden="1" customWidth="1"/>
-    <col min="165" max="167" width="14.5703125" style="156" hidden="1" customWidth="1"/>
+    <col min="165" max="165" width="32.85546875" style="156" customWidth="1"/>
+    <col min="166" max="166" width="18.42578125" style="156" customWidth="1"/>
+    <col min="167" max="167" width="11.42578125" style="156" customWidth="1"/>
     <col min="168" max="168" width="14.5703125" style="156" customWidth="1"/>
     <col min="169" max="169" width="14.85546875" style="170" customWidth="1"/>
     <col min="170" max="170" width="11.28515625" style="162" customWidth="1"/>
@@ -10958,10 +11008,10 @@
       <c r="D2" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="417" t="s">
+      <c r="E2" s="405" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="418"/>
+      <c r="F2" s="406"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
@@ -11137,10 +11187,10 @@
       <c r="D3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="417">
+      <c r="E3" s="405">
         <v>20330693917</v>
       </c>
-      <c r="F3" s="419"/>
+      <c r="F3" s="407"/>
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
@@ -11315,10 +11365,10 @@
       <c r="D4" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="408" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="421"/>
+      <c r="F4" s="409"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -11498,10 +11548,10 @@
       <c r="D5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="422">
+      <c r="E5" s="410">
         <v>43678</v>
       </c>
-      <c r="F5" s="423"/>
+      <c r="F5" s="411"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -11679,10 +11729,10 @@
       <c r="D6" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="422">
+      <c r="E6" s="410">
         <v>43708</v>
       </c>
-      <c r="F6" s="423"/>
+      <c r="F6" s="411"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -12370,588 +12420,588 @@
     </row>
     <row r="10" spans="1:171" s="131" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="224"/>
-      <c r="B10" s="414" t="s">
+      <c r="B10" s="404" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="414"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="404"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="404"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="404"/>
+      <c r="L10" s="404"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="404"/>
       <c r="O10" s="345"/>
-      <c r="P10" s="414" t="s">
+      <c r="P10" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="414"/>
-      <c r="R10" s="414"/>
-      <c r="S10" s="414" t="s">
+      <c r="Q10" s="404"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="414"/>
-      <c r="U10" s="414"/>
-      <c r="V10" s="414"/>
-      <c r="W10" s="414"/>
-      <c r="X10" s="414" t="s">
+      <c r="T10" s="404"/>
+      <c r="U10" s="404"/>
+      <c r="V10" s="404"/>
+      <c r="W10" s="404"/>
+      <c r="X10" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="414"/>
-      <c r="Z10" s="414" t="s">
+      <c r="Y10" s="404"/>
+      <c r="Z10" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="414"/>
-      <c r="AB10" s="414" t="s">
+      <c r="AA10" s="404"/>
+      <c r="AB10" s="404" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="414"/>
-      <c r="AD10" s="414"/>
-      <c r="AE10" s="414" t="s">
+      <c r="AC10" s="404"/>
+      <c r="AD10" s="404"/>
+      <c r="AE10" s="404" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="414"/>
-      <c r="AG10" s="414"/>
+      <c r="AF10" s="404"/>
+      <c r="AG10" s="404"/>
       <c r="AH10" s="345"/>
-      <c r="AI10" s="414" t="s">
+      <c r="AI10" s="404" t="s">
         <v>157</v>
       </c>
-      <c r="AJ10" s="414"/>
-      <c r="AK10" s="414" t="s">
+      <c r="AJ10" s="404"/>
+      <c r="AK10" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AL10" s="414"/>
-      <c r="AM10" s="414"/>
-      <c r="AN10" s="414"/>
-      <c r="AO10" s="414"/>
-      <c r="AP10" s="414"/>
-      <c r="AQ10" s="414"/>
-      <c r="AR10" s="414"/>
-      <c r="AS10" s="414" t="s">
+      <c r="AL10" s="404"/>
+      <c r="AM10" s="404"/>
+      <c r="AN10" s="404"/>
+      <c r="AO10" s="404"/>
+      <c r="AP10" s="404"/>
+      <c r="AQ10" s="404"/>
+      <c r="AR10" s="404"/>
+      <c r="AS10" s="404" t="s">
         <v>32</v>
       </c>
-      <c r="AT10" s="414"/>
-      <c r="AU10" s="414"/>
-      <c r="AV10" s="414"/>
-      <c r="AW10" s="414"/>
-      <c r="AX10" s="414"/>
-      <c r="AY10" s="414"/>
-      <c r="AZ10" s="414"/>
-      <c r="BA10" s="414"/>
-      <c r="BB10" s="414"/>
-      <c r="BC10" s="414"/>
-      <c r="BD10" s="414"/>
-      <c r="BE10" s="414"/>
-      <c r="BF10" s="414"/>
-      <c r="BG10" s="414" t="s">
+      <c r="AT10" s="404"/>
+      <c r="AU10" s="404"/>
+      <c r="AV10" s="404"/>
+      <c r="AW10" s="404"/>
+      <c r="AX10" s="404"/>
+      <c r="AY10" s="404"/>
+      <c r="AZ10" s="404"/>
+      <c r="BA10" s="404"/>
+      <c r="BB10" s="404"/>
+      <c r="BC10" s="404"/>
+      <c r="BD10" s="404"/>
+      <c r="BE10" s="404"/>
+      <c r="BF10" s="404"/>
+      <c r="BG10" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="BH10" s="414"/>
-      <c r="BI10" s="414"/>
-      <c r="BJ10" s="404" t="s">
+      <c r="BH10" s="404"/>
+      <c r="BI10" s="404"/>
+      <c r="BJ10" s="413" t="s">
         <v>96</v>
       </c>
-      <c r="BK10" s="415" t="s">
+      <c r="BK10" s="417" t="s">
         <v>18</v>
       </c>
-      <c r="BL10" s="414" t="s">
+      <c r="BL10" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="BM10" s="414"/>
-      <c r="BN10" s="414"/>
-      <c r="BO10" s="414"/>
-      <c r="BP10" s="414"/>
-      <c r="BQ10" s="414"/>
-      <c r="BR10" s="414"/>
-      <c r="BS10" s="414"/>
-      <c r="BT10" s="414"/>
-      <c r="BU10" s="414"/>
-      <c r="BV10" s="414"/>
-      <c r="BW10" s="414"/>
-      <c r="BX10" s="414"/>
-      <c r="BY10" s="414"/>
-      <c r="BZ10" s="414"/>
-      <c r="CA10" s="414"/>
-      <c r="CB10" s="414"/>
-      <c r="CC10" s="414"/>
-      <c r="CD10" s="414"/>
-      <c r="CE10" s="414"/>
-      <c r="CF10" s="414"/>
-      <c r="CG10" s="414"/>
-      <c r="CH10" s="414"/>
-      <c r="CI10" s="414"/>
-      <c r="CJ10" s="414"/>
-      <c r="CK10" s="414"/>
-      <c r="CL10" s="414"/>
-      <c r="CM10" s="414"/>
-      <c r="CN10" s="414"/>
-      <c r="CO10" s="414"/>
-      <c r="CP10" s="414"/>
-      <c r="CQ10" s="414"/>
-      <c r="CR10" s="414"/>
-      <c r="CS10" s="414"/>
-      <c r="CT10" s="414"/>
-      <c r="CU10" s="414"/>
-      <c r="CV10" s="414"/>
-      <c r="CW10" s="414"/>
-      <c r="CX10" s="414"/>
-      <c r="CY10" s="414"/>
-      <c r="CZ10" s="414"/>
-      <c r="DA10" s="414"/>
-      <c r="DB10" s="414"/>
-      <c r="DC10" s="414"/>
-      <c r="DD10" s="414"/>
-      <c r="DE10" s="414"/>
-      <c r="DF10" s="414"/>
-      <c r="DG10" s="414"/>
-      <c r="DH10" s="414"/>
-      <c r="DI10" s="414"/>
-      <c r="DJ10" s="414"/>
-      <c r="DK10" s="414"/>
-      <c r="DL10" s="414"/>
-      <c r="DM10" s="414"/>
-      <c r="DN10" s="414"/>
-      <c r="DO10" s="414"/>
-      <c r="DP10" s="414"/>
-      <c r="DQ10" s="414"/>
-      <c r="DR10" s="414"/>
-      <c r="DS10" s="414"/>
-      <c r="DT10" s="414"/>
-      <c r="DU10" s="414"/>
-      <c r="DV10" s="414"/>
-      <c r="DW10" s="414"/>
-      <c r="DX10" s="414"/>
-      <c r="DY10" s="414"/>
-      <c r="DZ10" s="414"/>
-      <c r="EA10" s="414"/>
-      <c r="EB10" s="414"/>
-      <c r="EC10" s="414"/>
-      <c r="ED10" s="414"/>
-      <c r="EE10" s="414"/>
-      <c r="EF10" s="414"/>
-      <c r="EG10" s="409" t="s">
+      <c r="BM10" s="404"/>
+      <c r="BN10" s="404"/>
+      <c r="BO10" s="404"/>
+      <c r="BP10" s="404"/>
+      <c r="BQ10" s="404"/>
+      <c r="BR10" s="404"/>
+      <c r="BS10" s="404"/>
+      <c r="BT10" s="404"/>
+      <c r="BU10" s="404"/>
+      <c r="BV10" s="404"/>
+      <c r="BW10" s="404"/>
+      <c r="BX10" s="404"/>
+      <c r="BY10" s="404"/>
+      <c r="BZ10" s="404"/>
+      <c r="CA10" s="404"/>
+      <c r="CB10" s="404"/>
+      <c r="CC10" s="404"/>
+      <c r="CD10" s="404"/>
+      <c r="CE10" s="404"/>
+      <c r="CF10" s="404"/>
+      <c r="CG10" s="404"/>
+      <c r="CH10" s="404"/>
+      <c r="CI10" s="404"/>
+      <c r="CJ10" s="404"/>
+      <c r="CK10" s="404"/>
+      <c r="CL10" s="404"/>
+      <c r="CM10" s="404"/>
+      <c r="CN10" s="404"/>
+      <c r="CO10" s="404"/>
+      <c r="CP10" s="404"/>
+      <c r="CQ10" s="404"/>
+      <c r="CR10" s="404"/>
+      <c r="CS10" s="404"/>
+      <c r="CT10" s="404"/>
+      <c r="CU10" s="404"/>
+      <c r="CV10" s="404"/>
+      <c r="CW10" s="404"/>
+      <c r="CX10" s="404"/>
+      <c r="CY10" s="404"/>
+      <c r="CZ10" s="404"/>
+      <c r="DA10" s="404"/>
+      <c r="DB10" s="404"/>
+      <c r="DC10" s="404"/>
+      <c r="DD10" s="404"/>
+      <c r="DE10" s="404"/>
+      <c r="DF10" s="404"/>
+      <c r="DG10" s="404"/>
+      <c r="DH10" s="404"/>
+      <c r="DI10" s="404"/>
+      <c r="DJ10" s="404"/>
+      <c r="DK10" s="404"/>
+      <c r="DL10" s="404"/>
+      <c r="DM10" s="404"/>
+      <c r="DN10" s="404"/>
+      <c r="DO10" s="404"/>
+      <c r="DP10" s="404"/>
+      <c r="DQ10" s="404"/>
+      <c r="DR10" s="404"/>
+      <c r="DS10" s="404"/>
+      <c r="DT10" s="404"/>
+      <c r="DU10" s="404"/>
+      <c r="DV10" s="404"/>
+      <c r="DW10" s="404"/>
+      <c r="DX10" s="404"/>
+      <c r="DY10" s="404"/>
+      <c r="DZ10" s="404"/>
+      <c r="EA10" s="404"/>
+      <c r="EB10" s="404"/>
+      <c r="EC10" s="404"/>
+      <c r="ED10" s="404"/>
+      <c r="EE10" s="404"/>
+      <c r="EF10" s="404"/>
+      <c r="EG10" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="EH10" s="409" t="s">
+      <c r="EH10" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="EI10" s="414"/>
-      <c r="EJ10" s="414"/>
-      <c r="EK10" s="414"/>
-      <c r="EL10" s="414"/>
-      <c r="EM10" s="414"/>
-      <c r="EN10" s="414"/>
-      <c r="EO10" s="414"/>
-      <c r="EP10" s="414"/>
-      <c r="EQ10" s="414"/>
-      <c r="ER10" s="414"/>
-      <c r="ES10" s="414"/>
-      <c r="ET10" s="414"/>
-      <c r="EU10" s="414"/>
-      <c r="EV10" s="414"/>
-      <c r="EW10" s="414"/>
-      <c r="EX10" s="414"/>
-      <c r="EY10" s="414"/>
-      <c r="EZ10" s="414"/>
-      <c r="FA10" s="414"/>
-      <c r="FB10" s="414"/>
-      <c r="FC10" s="414"/>
-      <c r="FD10" s="414"/>
-      <c r="FE10" s="414"/>
-      <c r="FF10" s="414"/>
-      <c r="FG10" s="414"/>
-      <c r="FH10" s="414"/>
-      <c r="FI10" s="414"/>
-      <c r="FJ10" s="414"/>
-      <c r="FK10" s="414"/>
-      <c r="FL10" s="414"/>
-      <c r="FM10" s="409" t="s">
+      <c r="EI10" s="404"/>
+      <c r="EJ10" s="404"/>
+      <c r="EK10" s="404"/>
+      <c r="EL10" s="404"/>
+      <c r="EM10" s="404"/>
+      <c r="EN10" s="404"/>
+      <c r="EO10" s="404"/>
+      <c r="EP10" s="404"/>
+      <c r="EQ10" s="404"/>
+      <c r="ER10" s="404"/>
+      <c r="ES10" s="404"/>
+      <c r="ET10" s="404"/>
+      <c r="EU10" s="404"/>
+      <c r="EV10" s="404"/>
+      <c r="EW10" s="404"/>
+      <c r="EX10" s="404"/>
+      <c r="EY10" s="404"/>
+      <c r="EZ10" s="404"/>
+      <c r="FA10" s="404"/>
+      <c r="FB10" s="404"/>
+      <c r="FC10" s="404"/>
+      <c r="FD10" s="404"/>
+      <c r="FE10" s="404"/>
+      <c r="FF10" s="404"/>
+      <c r="FG10" s="404"/>
+      <c r="FH10" s="404"/>
+      <c r="FI10" s="404"/>
+      <c r="FJ10" s="404"/>
+      <c r="FK10" s="404"/>
+      <c r="FL10" s="404"/>
+      <c r="FM10" s="416" t="s">
         <v>9</v>
       </c>
       <c r="FN10" s="28"/>
-      <c r="FO10" s="412" t="s">
+      <c r="FO10" s="414" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:171" s="134" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="225"/>
-      <c r="B11" s="405" t="s">
+      <c r="B11" s="412" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="405" t="s">
+      <c r="C11" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="405" t="s">
+      <c r="D11" s="412" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="405" t="s">
+      <c r="E11" s="412" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="412" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="405" t="s">
+      <c r="G11" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="405" t="s">
+      <c r="H11" s="412" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="405" t="s">
+      <c r="I11" s="412" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="405" t="s">
+      <c r="J11" s="412" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="405" t="s">
+      <c r="K11" s="412" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="405" t="s">
+      <c r="L11" s="412" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="405" t="s">
+      <c r="M11" s="412" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="405" t="s">
+      <c r="N11" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="405" t="s">
+      <c r="O11" s="412" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="405" t="s">
+      <c r="P11" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="405" t="s">
+      <c r="Q11" s="412" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="405" t="s">
+      <c r="R11" s="412" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="405" t="s">
+      <c r="S11" s="412" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="405" t="s">
+      <c r="T11" s="412" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="405" t="s">
+      <c r="U11" s="412" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="405" t="s">
+      <c r="V11" s="412" t="s">
         <v>149</v>
       </c>
-      <c r="W11" s="405" t="s">
+      <c r="W11" s="412" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="405" t="s">
+      <c r="X11" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="405" t="s">
+      <c r="Y11" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="405" t="s">
+      <c r="Z11" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="405" t="s">
+      <c r="AA11" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="405" t="s">
+      <c r="AB11" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" s="411" t="s">
+      <c r="AC11" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="411" t="s">
+      <c r="AD11" s="419" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="405" t="s">
+      <c r="AE11" s="412" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="405" t="s">
+      <c r="AF11" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="AG11" s="405" t="s">
+      <c r="AG11" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="AH11" s="405" t="s">
+      <c r="AH11" s="412" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="405" t="s">
+      <c r="AI11" s="412" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" s="405" t="s">
+      <c r="AJ11" s="412" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="405" t="s">
+      <c r="AK11" s="412" t="s">
         <v>86</v>
       </c>
-      <c r="AL11" s="405" t="s">
+      <c r="AL11" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="405" t="s">
+      <c r="AM11" s="412" t="s">
         <v>87</v>
       </c>
-      <c r="AN11" s="416" t="s">
+      <c r="AN11" s="418" t="s">
         <v>231</v>
       </c>
-      <c r="AO11" s="405" t="s">
+      <c r="AO11" s="412" t="s">
         <v>90</v>
       </c>
-      <c r="AP11" s="405" t="s">
+      <c r="AP11" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="AQ11" s="405" t="s">
+      <c r="AQ11" s="412" t="s">
         <v>89</v>
       </c>
-      <c r="AR11" s="405" t="s">
+      <c r="AR11" s="412" t="s">
         <v>15</v>
       </c>
-      <c r="AS11" s="405" t="s">
+      <c r="AS11" s="412" t="s">
         <v>27</v>
       </c>
-      <c r="AT11" s="405" t="s">
+      <c r="AT11" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="AU11" s="405" t="s">
+      <c r="AU11" s="412" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="405" t="s">
+      <c r="AV11" s="412" t="s">
         <v>63</v>
       </c>
-      <c r="AW11" s="405" t="s">
+      <c r="AW11" s="412" t="s">
         <v>65</v>
       </c>
-      <c r="AX11" s="405" t="s">
+      <c r="AX11" s="412" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="405" t="s">
+      <c r="AY11" s="412" t="s">
         <v>58</v>
       </c>
-      <c r="AZ11" s="405" t="s">
+      <c r="AZ11" s="412" t="s">
         <v>57</v>
       </c>
-      <c r="BA11" s="405" t="s">
+      <c r="BA11" s="412" t="s">
         <v>53</v>
       </c>
-      <c r="BB11" s="405" t="s">
+      <c r="BB11" s="412" t="s">
         <v>93</v>
       </c>
-      <c r="BC11" s="405" t="s">
+      <c r="BC11" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="BD11" s="405" t="s">
+      <c r="BD11" s="412" t="s">
         <v>99</v>
       </c>
-      <c r="BE11" s="405" t="s">
+      <c r="BE11" s="412" t="s">
         <v>141</v>
       </c>
-      <c r="BF11" s="405" t="s">
+      <c r="BF11" s="412" t="s">
         <v>235</v>
       </c>
-      <c r="BG11" s="404">
+      <c r="BG11" s="413">
         <v>0.25</v>
       </c>
-      <c r="BH11" s="404">
+      <c r="BH11" s="413">
         <v>0.35</v>
       </c>
-      <c r="BI11" s="404">
+      <c r="BI11" s="413">
         <v>1</v>
       </c>
-      <c r="BJ11" s="404"/>
-      <c r="BK11" s="415"/>
-      <c r="BL11" s="406" t="s">
+      <c r="BJ11" s="413"/>
+      <c r="BK11" s="417"/>
+      <c r="BL11" s="421" t="s">
         <v>97</v>
       </c>
-      <c r="BM11" s="406"/>
-      <c r="BN11" s="406"/>
-      <c r="BO11" s="406"/>
-      <c r="BP11" s="406"/>
-      <c r="BQ11" s="406"/>
-      <c r="BR11" s="406"/>
-      <c r="BS11" s="406"/>
-      <c r="BT11" s="406"/>
-      <c r="BU11" s="406"/>
-      <c r="BV11" s="406"/>
-      <c r="BW11" s="406"/>
-      <c r="BX11" s="406"/>
-      <c r="BY11" s="406"/>
-      <c r="BZ11" s="406"/>
-      <c r="CA11" s="406"/>
-      <c r="CB11" s="406"/>
-      <c r="CC11" s="406"/>
-      <c r="CD11" s="406"/>
-      <c r="CE11" s="406"/>
-      <c r="CF11" s="406"/>
-      <c r="CG11" s="406"/>
-      <c r="CH11" s="406"/>
-      <c r="CI11" s="406"/>
-      <c r="CJ11" s="406"/>
-      <c r="CK11" s="406"/>
-      <c r="CL11" s="406"/>
-      <c r="CM11" s="406"/>
-      <c r="CN11" s="406"/>
-      <c r="CO11" s="406"/>
-      <c r="CP11" s="406"/>
-      <c r="CQ11" s="406" t="s">
+      <c r="BM11" s="421"/>
+      <c r="BN11" s="421"/>
+      <c r="BO11" s="421"/>
+      <c r="BP11" s="421"/>
+      <c r="BQ11" s="421"/>
+      <c r="BR11" s="421"/>
+      <c r="BS11" s="421"/>
+      <c r="BT11" s="421"/>
+      <c r="BU11" s="421"/>
+      <c r="BV11" s="421"/>
+      <c r="BW11" s="421"/>
+      <c r="BX11" s="421"/>
+      <c r="BY11" s="421"/>
+      <c r="BZ11" s="421"/>
+      <c r="CA11" s="421"/>
+      <c r="CB11" s="421"/>
+      <c r="CC11" s="421"/>
+      <c r="CD11" s="421"/>
+      <c r="CE11" s="421"/>
+      <c r="CF11" s="421"/>
+      <c r="CG11" s="421"/>
+      <c r="CH11" s="421"/>
+      <c r="CI11" s="421"/>
+      <c r="CJ11" s="421"/>
+      <c r="CK11" s="421"/>
+      <c r="CL11" s="421"/>
+      <c r="CM11" s="421"/>
+      <c r="CN11" s="421"/>
+      <c r="CO11" s="421"/>
+      <c r="CP11" s="421"/>
+      <c r="CQ11" s="421" t="s">
         <v>103</v>
       </c>
-      <c r="CR11" s="406"/>
-      <c r="CS11" s="406"/>
-      <c r="CT11" s="406"/>
-      <c r="CU11" s="406"/>
-      <c r="CV11" s="406"/>
-      <c r="CW11" s="406"/>
-      <c r="CX11" s="406"/>
-      <c r="CY11" s="406"/>
-      <c r="CZ11" s="406"/>
-      <c r="DA11" s="406"/>
-      <c r="DB11" s="406"/>
-      <c r="DC11" s="406"/>
-      <c r="DD11" s="406"/>
-      <c r="DE11" s="406"/>
-      <c r="DF11" s="406"/>
-      <c r="DG11" s="406"/>
-      <c r="DH11" s="406"/>
-      <c r="DI11" s="406"/>
-      <c r="DJ11" s="406"/>
-      <c r="DK11" s="407" t="s">
+      <c r="CR11" s="421"/>
+      <c r="CS11" s="421"/>
+      <c r="CT11" s="421"/>
+      <c r="CU11" s="421"/>
+      <c r="CV11" s="421"/>
+      <c r="CW11" s="421"/>
+      <c r="CX11" s="421"/>
+      <c r="CY11" s="421"/>
+      <c r="CZ11" s="421"/>
+      <c r="DA11" s="421"/>
+      <c r="DB11" s="421"/>
+      <c r="DC11" s="421"/>
+      <c r="DD11" s="421"/>
+      <c r="DE11" s="421"/>
+      <c r="DF11" s="421"/>
+      <c r="DG11" s="421"/>
+      <c r="DH11" s="421"/>
+      <c r="DI11" s="421"/>
+      <c r="DJ11" s="421"/>
+      <c r="DK11" s="422" t="s">
         <v>114</v>
       </c>
-      <c r="DL11" s="407"/>
-      <c r="DM11" s="407"/>
-      <c r="DN11" s="407"/>
-      <c r="DO11" s="407"/>
-      <c r="DP11" s="407"/>
-      <c r="DQ11" s="407"/>
-      <c r="DR11" s="407"/>
-      <c r="DS11" s="407"/>
-      <c r="DT11" s="407"/>
-      <c r="DU11" s="407"/>
-      <c r="DV11" s="407"/>
-      <c r="DW11" s="408" t="s">
+      <c r="DL11" s="422"/>
+      <c r="DM11" s="422"/>
+      <c r="DN11" s="422"/>
+      <c r="DO11" s="422"/>
+      <c r="DP11" s="422"/>
+      <c r="DQ11" s="422"/>
+      <c r="DR11" s="422"/>
+      <c r="DS11" s="422"/>
+      <c r="DT11" s="422"/>
+      <c r="DU11" s="422"/>
+      <c r="DV11" s="422"/>
+      <c r="DW11" s="423" t="s">
         <v>80</v>
       </c>
-      <c r="DX11" s="408"/>
-      <c r="DY11" s="408"/>
-      <c r="DZ11" s="408"/>
-      <c r="EA11" s="408"/>
-      <c r="EB11" s="408"/>
-      <c r="EC11" s="408"/>
-      <c r="ED11" s="408"/>
-      <c r="EE11" s="408"/>
-      <c r="EF11" s="408"/>
-      <c r="EG11" s="409"/>
-      <c r="EH11" s="409"/>
-      <c r="EI11" s="405" t="s">
+      <c r="DX11" s="423"/>
+      <c r="DY11" s="423"/>
+      <c r="DZ11" s="423"/>
+      <c r="EA11" s="423"/>
+      <c r="EB11" s="423"/>
+      <c r="EC11" s="423"/>
+      <c r="ED11" s="423"/>
+      <c r="EE11" s="423"/>
+      <c r="EF11" s="423"/>
+      <c r="EG11" s="416"/>
+      <c r="EH11" s="416"/>
+      <c r="EI11" s="412" t="s">
         <v>122</v>
       </c>
-      <c r="EJ11" s="405"/>
-      <c r="EK11" s="405"/>
-      <c r="EL11" s="405"/>
-      <c r="EM11" s="405"/>
-      <c r="EN11" s="405"/>
+      <c r="EJ11" s="412"/>
+      <c r="EK11" s="412"/>
+      <c r="EL11" s="412"/>
+      <c r="EM11" s="412"/>
+      <c r="EN11" s="412"/>
       <c r="EO11" s="346" t="s">
         <v>125</v>
       </c>
-      <c r="EP11" s="410" t="s">
+      <c r="EP11" s="420" t="s">
         <v>124</v>
       </c>
-      <c r="EQ11" s="410"/>
-      <c r="ER11" s="410"/>
-      <c r="ES11" s="410"/>
-      <c r="ET11" s="405" t="s">
+      <c r="EQ11" s="420"/>
+      <c r="ER11" s="420"/>
+      <c r="ES11" s="420"/>
+      <c r="ET11" s="412" t="s">
         <v>126</v>
       </c>
-      <c r="EU11" s="405"/>
-      <c r="EV11" s="405"/>
-      <c r="EW11" s="405"/>
-      <c r="EX11" s="405"/>
-      <c r="EY11" s="405"/>
-      <c r="EZ11" s="405"/>
-      <c r="FA11" s="405"/>
-      <c r="FB11" s="405"/>
-      <c r="FC11" s="405"/>
-      <c r="FD11" s="405"/>
-      <c r="FE11" s="405"/>
-      <c r="FF11" s="405"/>
-      <c r="FG11" s="405"/>
-      <c r="FH11" s="405"/>
-      <c r="FI11" s="405"/>
-      <c r="FJ11" s="405"/>
-      <c r="FK11" s="405"/>
-      <c r="FL11" s="405" t="s">
+      <c r="EU11" s="412"/>
+      <c r="EV11" s="412"/>
+      <c r="EW11" s="412"/>
+      <c r="EX11" s="412"/>
+      <c r="EY11" s="412"/>
+      <c r="EZ11" s="412"/>
+      <c r="FA11" s="412"/>
+      <c r="FB11" s="412"/>
+      <c r="FC11" s="412"/>
+      <c r="FD11" s="412"/>
+      <c r="FE11" s="412"/>
+      <c r="FF11" s="412"/>
+      <c r="FG11" s="412"/>
+      <c r="FH11" s="412"/>
+      <c r="FI11" s="412"/>
+      <c r="FJ11" s="412"/>
+      <c r="FK11" s="412"/>
+      <c r="FL11" s="412" t="s">
         <v>3</v>
       </c>
-      <c r="FM11" s="409"/>
+      <c r="FM11" s="416"/>
       <c r="FN11" s="24"/>
-      <c r="FO11" s="412"/>
+      <c r="FO11" s="414"/>
     </row>
     <row r="12" spans="1:171" s="134" customFormat="1" ht="49.5" customHeight="1">
       <c r="A12" s="226"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="405"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="405"/>
-      <c r="K12" s="405"/>
-      <c r="L12" s="405"/>
-      <c r="M12" s="405"/>
-      <c r="N12" s="405"/>
-      <c r="O12" s="405"/>
-      <c r="P12" s="405"/>
-      <c r="Q12" s="405"/>
-      <c r="R12" s="405"/>
-      <c r="S12" s="405"/>
-      <c r="T12" s="405"/>
-      <c r="U12" s="405"/>
-      <c r="V12" s="405"/>
-      <c r="W12" s="405"/>
-      <c r="X12" s="405"/>
-      <c r="Y12" s="405"/>
-      <c r="Z12" s="405"/>
-      <c r="AA12" s="405"/>
-      <c r="AB12" s="405"/>
-      <c r="AC12" s="411"/>
-      <c r="AD12" s="411"/>
-      <c r="AE12" s="405"/>
-      <c r="AF12" s="405"/>
-      <c r="AG12" s="405"/>
-      <c r="AH12" s="405"/>
-      <c r="AI12" s="405"/>
-      <c r="AJ12" s="405"/>
-      <c r="AK12" s="405"/>
-      <c r="AL12" s="405"/>
-      <c r="AM12" s="405"/>
-      <c r="AN12" s="416"/>
-      <c r="AO12" s="405"/>
-      <c r="AP12" s="405"/>
-      <c r="AQ12" s="405"/>
-      <c r="AR12" s="405"/>
-      <c r="AS12" s="405"/>
-      <c r="AT12" s="405"/>
-      <c r="AU12" s="405"/>
-      <c r="AV12" s="405"/>
-      <c r="AW12" s="405"/>
-      <c r="AX12" s="405"/>
-      <c r="AY12" s="405"/>
-      <c r="AZ12" s="405"/>
-      <c r="BA12" s="405"/>
-      <c r="BB12" s="405"/>
-      <c r="BC12" s="405"/>
-      <c r="BD12" s="405"/>
-      <c r="BE12" s="405"/>
-      <c r="BF12" s="405"/>
-      <c r="BG12" s="405"/>
-      <c r="BH12" s="405"/>
-      <c r="BI12" s="405"/>
-      <c r="BJ12" s="404"/>
-      <c r="BK12" s="415"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="412"/>
+      <c r="F12" s="412"/>
+      <c r="G12" s="412"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="412"/>
+      <c r="J12" s="412"/>
+      <c r="K12" s="412"/>
+      <c r="L12" s="412"/>
+      <c r="M12" s="412"/>
+      <c r="N12" s="412"/>
+      <c r="O12" s="412"/>
+      <c r="P12" s="412"/>
+      <c r="Q12" s="412"/>
+      <c r="R12" s="412"/>
+      <c r="S12" s="412"/>
+      <c r="T12" s="412"/>
+      <c r="U12" s="412"/>
+      <c r="V12" s="412"/>
+      <c r="W12" s="412"/>
+      <c r="X12" s="412"/>
+      <c r="Y12" s="412"/>
+      <c r="Z12" s="412"/>
+      <c r="AA12" s="412"/>
+      <c r="AB12" s="412"/>
+      <c r="AC12" s="419"/>
+      <c r="AD12" s="419"/>
+      <c r="AE12" s="412"/>
+      <c r="AF12" s="412"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="412"/>
+      <c r="AI12" s="412"/>
+      <c r="AJ12" s="412"/>
+      <c r="AK12" s="412"/>
+      <c r="AL12" s="412"/>
+      <c r="AM12" s="412"/>
+      <c r="AN12" s="418"/>
+      <c r="AO12" s="412"/>
+      <c r="AP12" s="412"/>
+      <c r="AQ12" s="412"/>
+      <c r="AR12" s="412"/>
+      <c r="AS12" s="412"/>
+      <c r="AT12" s="412"/>
+      <c r="AU12" s="412"/>
+      <c r="AV12" s="412"/>
+      <c r="AW12" s="412"/>
+      <c r="AX12" s="412"/>
+      <c r="AY12" s="412"/>
+      <c r="AZ12" s="412"/>
+      <c r="BA12" s="412"/>
+      <c r="BB12" s="412"/>
+      <c r="BC12" s="412"/>
+      <c r="BD12" s="412"/>
+      <c r="BE12" s="412"/>
+      <c r="BF12" s="412"/>
+      <c r="BG12" s="412"/>
+      <c r="BH12" s="412"/>
+      <c r="BI12" s="412"/>
+      <c r="BJ12" s="413"/>
+      <c r="BK12" s="417"/>
       <c r="BL12" s="346" t="s">
         <v>2</v>
       </c>
@@ -13139,8 +13189,8 @@
       <c r="EF12" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="EG12" s="409"/>
-      <c r="EH12" s="409"/>
+      <c r="EG12" s="416"/>
+      <c r="EH12" s="416"/>
       <c r="EI12" s="346" t="s">
         <v>75</v>
       </c>
@@ -13210,10 +13260,10 @@
       <c r="FI12" s="346"/>
       <c r="FJ12" s="346"/>
       <c r="FK12" s="346"/>
-      <c r="FL12" s="405"/>
-      <c r="FM12" s="409"/>
+      <c r="FL12" s="412"/>
+      <c r="FM12" s="416"/>
       <c r="FN12" s="24"/>
-      <c r="FO12" s="413"/>
+      <c r="FO12" s="415"/>
     </row>
     <row r="13" spans="1:171" s="2" customFormat="1" ht="14.45" customHeight="1">
       <c r="A13" s="269"/>
@@ -15139,12 +15189,76 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BL11:CP11"/>
+    <mergeCell ref="CQ11:DJ11"/>
+    <mergeCell ref="DK11:DV11"/>
+    <mergeCell ref="DW11:EF11"/>
+    <mergeCell ref="EI11:EN11"/>
+    <mergeCell ref="FM10:FM12"/>
+    <mergeCell ref="EP11:ES11"/>
+    <mergeCell ref="ET11:FK11"/>
+    <mergeCell ref="FL11:FL12"/>
+    <mergeCell ref="BD11:BD12"/>
+    <mergeCell ref="BE11:BE12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AZ11:AZ12"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="BB11:BB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="BC11:BC12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="FO10:FO12"/>
+    <mergeCell ref="BL10:EF10"/>
+    <mergeCell ref="EG10:EG12"/>
+    <mergeCell ref="EH10:EH12"/>
+    <mergeCell ref="EI10:FL10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="BJ10:BJ12"/>
+    <mergeCell ref="BK10:BK12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
     <mergeCell ref="AV11:AV12"/>
     <mergeCell ref="BF11:BF12"/>
     <mergeCell ref="BG11:BG12"/>
@@ -15161,76 +15275,12 @@
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="FO10:FO12"/>
-    <mergeCell ref="BL10:EF10"/>
-    <mergeCell ref="EG10:EG12"/>
-    <mergeCell ref="EH10:EH12"/>
-    <mergeCell ref="EI10:FL10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="BJ10:BJ12"/>
-    <mergeCell ref="BK10:BK12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="BC11:BC12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="BD11:BD12"/>
-    <mergeCell ref="BE11:BE12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AZ11:AZ12"/>
-    <mergeCell ref="BA11:BA12"/>
-    <mergeCell ref="BB11:BB12"/>
-    <mergeCell ref="EI11:EN11"/>
-    <mergeCell ref="FM10:FM12"/>
-    <mergeCell ref="EP11:ES11"/>
-    <mergeCell ref="ET11:FK11"/>
-    <mergeCell ref="FL11:FL12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BL11:CP11"/>
-    <mergeCell ref="CQ11:DJ11"/>
-    <mergeCell ref="DK11:DV11"/>
-    <mergeCell ref="DW11:EF11"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -15241,18 +15291,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="EN16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="12" topLeftCell="EN13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="EQ12" sqref="EQ12"/>
       <selection pane="topRight" activeCell="EQ12" sqref="EQ12"/>
       <selection pane="bottomLeft" activeCell="EQ12" sqref="EQ12"/>
-      <selection pane="bottomRight" activeCell="EV26" sqref="EV25:FN26"/>
+      <selection pane="bottomRight" activeCell="EO1" sqref="EO1:EO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1"/>
@@ -15332,10 +15382,10 @@
     <col min="139" max="141" width="14.5703125" style="156" customWidth="1"/>
     <col min="142" max="143" width="14.5703125" style="156" hidden="1" customWidth="1"/>
     <col min="144" max="144" width="16.28515625" style="156" customWidth="1"/>
-    <col min="145" max="145" width="14.5703125" style="97" customWidth="1"/>
+    <col min="145" max="145" width="14.7109375" style="97" customWidth="1"/>
     <col min="146" max="147" width="14.5703125" style="156" hidden="1" customWidth="1"/>
-    <col min="148" max="151" width="14.5703125" style="153" hidden="1" customWidth="1"/>
-    <col min="152" max="152" width="14.5703125" style="153" customWidth="1"/>
+    <col min="148" max="149" width="14.5703125" style="153" hidden="1" customWidth="1"/>
+    <col min="150" max="152" width="14.5703125" style="153" customWidth="1"/>
     <col min="153" max="153" width="14.5703125" style="156" hidden="1" customWidth="1"/>
     <col min="154" max="155" width="14.5703125" style="153" hidden="1" customWidth="1"/>
     <col min="156" max="156" width="14.5703125" style="156" hidden="1" customWidth="1"/>
@@ -15539,10 +15589,10 @@
       <c r="D2" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="417" t="s">
+      <c r="E2" s="405" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="418"/>
+      <c r="F2" s="406"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
@@ -15720,10 +15770,10 @@
       <c r="D3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="417">
+      <c r="E3" s="405">
         <v>20330693917</v>
       </c>
-      <c r="F3" s="419"/>
+      <c r="F3" s="407"/>
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
@@ -15900,10 +15950,10 @@
       <c r="D4" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="408" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="421"/>
+      <c r="F4" s="409"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -16085,10 +16135,10 @@
       <c r="D5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="422">
+      <c r="E5" s="410">
         <v>43678</v>
       </c>
-      <c r="F5" s="423"/>
+      <c r="F5" s="411"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -16268,10 +16318,10 @@
       <c r="D6" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="422">
+      <c r="E6" s="410">
         <v>43708</v>
       </c>
-      <c r="F6" s="423"/>
+      <c r="F6" s="411"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -16967,57 +17017,57 @@
     </row>
     <row r="10" spans="1:173" s="131" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="399"/>
-      <c r="B10" s="414" t="s">
+      <c r="B10" s="404" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="414"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="404"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="404"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="404"/>
+      <c r="L10" s="404"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="404"/>
       <c r="O10" s="228"/>
-      <c r="P10" s="414" t="s">
+      <c r="P10" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="414"/>
-      <c r="R10" s="414"/>
-      <c r="S10" s="414" t="s">
+      <c r="Q10" s="404"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="414"/>
-      <c r="U10" s="414"/>
-      <c r="V10" s="414"/>
-      <c r="W10" s="414"/>
-      <c r="X10" s="414" t="s">
+      <c r="T10" s="404"/>
+      <c r="U10" s="404"/>
+      <c r="V10" s="404"/>
+      <c r="W10" s="404"/>
+      <c r="X10" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="414"/>
-      <c r="Z10" s="414" t="s">
+      <c r="Y10" s="404"/>
+      <c r="Z10" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="414"/>
-      <c r="AB10" s="414" t="s">
+      <c r="AA10" s="404"/>
+      <c r="AB10" s="404" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="414"/>
-      <c r="AD10" s="414"/>
-      <c r="AE10" s="414" t="s">
+      <c r="AC10" s="404"/>
+      <c r="AD10" s="404"/>
+      <c r="AE10" s="404" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="414"/>
-      <c r="AG10" s="414"/>
+      <c r="AF10" s="404"/>
+      <c r="AG10" s="404"/>
       <c r="AH10" s="228"/>
-      <c r="AI10" s="414" t="s">
+      <c r="AI10" s="404" t="s">
         <v>157</v>
       </c>
-      <c r="AJ10" s="414"/>
+      <c r="AJ10" s="404"/>
       <c r="AK10" s="424" t="s">
         <v>35</v>
       </c>
@@ -17028,152 +17078,152 @@
       <c r="AP10" s="425"/>
       <c r="AQ10" s="425"/>
       <c r="AR10" s="426"/>
-      <c r="AS10" s="414" t="s">
+      <c r="AS10" s="404" t="s">
         <v>32</v>
       </c>
-      <c r="AT10" s="414"/>
-      <c r="AU10" s="414"/>
-      <c r="AV10" s="414"/>
-      <c r="AW10" s="414"/>
-      <c r="AX10" s="414"/>
-      <c r="AY10" s="414"/>
-      <c r="AZ10" s="414"/>
-      <c r="BA10" s="414"/>
-      <c r="BB10" s="414"/>
-      <c r="BC10" s="414"/>
-      <c r="BD10" s="414"/>
-      <c r="BE10" s="414"/>
-      <c r="BF10" s="414"/>
-      <c r="BG10" s="414" t="s">
+      <c r="AT10" s="404"/>
+      <c r="AU10" s="404"/>
+      <c r="AV10" s="404"/>
+      <c r="AW10" s="404"/>
+      <c r="AX10" s="404"/>
+      <c r="AY10" s="404"/>
+      <c r="AZ10" s="404"/>
+      <c r="BA10" s="404"/>
+      <c r="BB10" s="404"/>
+      <c r="BC10" s="404"/>
+      <c r="BD10" s="404"/>
+      <c r="BE10" s="404"/>
+      <c r="BF10" s="404"/>
+      <c r="BG10" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="BH10" s="414"/>
-      <c r="BI10" s="414"/>
-      <c r="BJ10" s="404" t="s">
+      <c r="BH10" s="404"/>
+      <c r="BI10" s="404"/>
+      <c r="BJ10" s="413" t="s">
         <v>96</v>
       </c>
-      <c r="BK10" s="415" t="s">
+      <c r="BK10" s="417" t="s">
         <v>18</v>
       </c>
-      <c r="BL10" s="414" t="s">
+      <c r="BL10" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="BM10" s="414"/>
-      <c r="BN10" s="414"/>
-      <c r="BO10" s="414"/>
-      <c r="BP10" s="414"/>
-      <c r="BQ10" s="414"/>
-      <c r="BR10" s="414"/>
-      <c r="BS10" s="414"/>
-      <c r="BT10" s="414"/>
-      <c r="BU10" s="414"/>
-      <c r="BV10" s="414"/>
-      <c r="BW10" s="414"/>
-      <c r="BX10" s="414"/>
-      <c r="BY10" s="414"/>
-      <c r="BZ10" s="414"/>
-      <c r="CA10" s="414"/>
-      <c r="CB10" s="414"/>
-      <c r="CC10" s="414"/>
-      <c r="CD10" s="414"/>
-      <c r="CE10" s="414"/>
-      <c r="CF10" s="414"/>
-      <c r="CG10" s="414"/>
-      <c r="CH10" s="414"/>
-      <c r="CI10" s="414"/>
-      <c r="CJ10" s="414"/>
-      <c r="CK10" s="414"/>
-      <c r="CL10" s="414"/>
-      <c r="CM10" s="414"/>
-      <c r="CN10" s="414"/>
-      <c r="CO10" s="414"/>
-      <c r="CP10" s="414"/>
-      <c r="CQ10" s="414"/>
-      <c r="CR10" s="414"/>
-      <c r="CS10" s="414"/>
-      <c r="CT10" s="414"/>
-      <c r="CU10" s="414"/>
-      <c r="CV10" s="414"/>
-      <c r="CW10" s="414"/>
-      <c r="CX10" s="414"/>
-      <c r="CY10" s="414"/>
-      <c r="CZ10" s="414"/>
-      <c r="DA10" s="414"/>
-      <c r="DB10" s="414"/>
-      <c r="DC10" s="414"/>
-      <c r="DD10" s="414"/>
-      <c r="DE10" s="414"/>
-      <c r="DF10" s="414"/>
-      <c r="DG10" s="414"/>
-      <c r="DH10" s="414"/>
-      <c r="DI10" s="414"/>
-      <c r="DJ10" s="414"/>
-      <c r="DK10" s="414"/>
-      <c r="DL10" s="414"/>
-      <c r="DM10" s="414"/>
-      <c r="DN10" s="414"/>
-      <c r="DO10" s="414"/>
-      <c r="DP10" s="414"/>
-      <c r="DQ10" s="414"/>
-      <c r="DR10" s="414"/>
-      <c r="DS10" s="414"/>
-      <c r="DT10" s="414"/>
-      <c r="DU10" s="414"/>
-      <c r="DV10" s="414"/>
-      <c r="DW10" s="414"/>
-      <c r="DX10" s="414"/>
-      <c r="DY10" s="414"/>
-      <c r="DZ10" s="414"/>
-      <c r="EA10" s="414"/>
-      <c r="EB10" s="414"/>
-      <c r="EC10" s="414"/>
-      <c r="ED10" s="414"/>
-      <c r="EE10" s="414"/>
-      <c r="EF10" s="414"/>
-      <c r="EG10" s="409" t="s">
+      <c r="BM10" s="404"/>
+      <c r="BN10" s="404"/>
+      <c r="BO10" s="404"/>
+      <c r="BP10" s="404"/>
+      <c r="BQ10" s="404"/>
+      <c r="BR10" s="404"/>
+      <c r="BS10" s="404"/>
+      <c r="BT10" s="404"/>
+      <c r="BU10" s="404"/>
+      <c r="BV10" s="404"/>
+      <c r="BW10" s="404"/>
+      <c r="BX10" s="404"/>
+      <c r="BY10" s="404"/>
+      <c r="BZ10" s="404"/>
+      <c r="CA10" s="404"/>
+      <c r="CB10" s="404"/>
+      <c r="CC10" s="404"/>
+      <c r="CD10" s="404"/>
+      <c r="CE10" s="404"/>
+      <c r="CF10" s="404"/>
+      <c r="CG10" s="404"/>
+      <c r="CH10" s="404"/>
+      <c r="CI10" s="404"/>
+      <c r="CJ10" s="404"/>
+      <c r="CK10" s="404"/>
+      <c r="CL10" s="404"/>
+      <c r="CM10" s="404"/>
+      <c r="CN10" s="404"/>
+      <c r="CO10" s="404"/>
+      <c r="CP10" s="404"/>
+      <c r="CQ10" s="404"/>
+      <c r="CR10" s="404"/>
+      <c r="CS10" s="404"/>
+      <c r="CT10" s="404"/>
+      <c r="CU10" s="404"/>
+      <c r="CV10" s="404"/>
+      <c r="CW10" s="404"/>
+      <c r="CX10" s="404"/>
+      <c r="CY10" s="404"/>
+      <c r="CZ10" s="404"/>
+      <c r="DA10" s="404"/>
+      <c r="DB10" s="404"/>
+      <c r="DC10" s="404"/>
+      <c r="DD10" s="404"/>
+      <c r="DE10" s="404"/>
+      <c r="DF10" s="404"/>
+      <c r="DG10" s="404"/>
+      <c r="DH10" s="404"/>
+      <c r="DI10" s="404"/>
+      <c r="DJ10" s="404"/>
+      <c r="DK10" s="404"/>
+      <c r="DL10" s="404"/>
+      <c r="DM10" s="404"/>
+      <c r="DN10" s="404"/>
+      <c r="DO10" s="404"/>
+      <c r="DP10" s="404"/>
+      <c r="DQ10" s="404"/>
+      <c r="DR10" s="404"/>
+      <c r="DS10" s="404"/>
+      <c r="DT10" s="404"/>
+      <c r="DU10" s="404"/>
+      <c r="DV10" s="404"/>
+      <c r="DW10" s="404"/>
+      <c r="DX10" s="404"/>
+      <c r="DY10" s="404"/>
+      <c r="DZ10" s="404"/>
+      <c r="EA10" s="404"/>
+      <c r="EB10" s="404"/>
+      <c r="EC10" s="404"/>
+      <c r="ED10" s="404"/>
+      <c r="EE10" s="404"/>
+      <c r="EF10" s="404"/>
+      <c r="EG10" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="EH10" s="409" t="s">
+      <c r="EH10" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="EI10" s="414"/>
-      <c r="EJ10" s="414"/>
-      <c r="EK10" s="414"/>
-      <c r="EL10" s="414"/>
-      <c r="EM10" s="414"/>
-      <c r="EN10" s="414"/>
-      <c r="EO10" s="414"/>
-      <c r="EP10" s="414"/>
-      <c r="EQ10" s="414"/>
-      <c r="ER10" s="414"/>
-      <c r="ES10" s="414"/>
-      <c r="ET10" s="414"/>
-      <c r="EU10" s="414"/>
-      <c r="EV10" s="414"/>
-      <c r="EW10" s="414"/>
-      <c r="EX10" s="414"/>
-      <c r="EY10" s="414"/>
-      <c r="EZ10" s="414"/>
-      <c r="FA10" s="414"/>
-      <c r="FB10" s="414"/>
-      <c r="FC10" s="414"/>
-      <c r="FD10" s="414"/>
-      <c r="FE10" s="414"/>
-      <c r="FF10" s="414"/>
-      <c r="FG10" s="414"/>
-      <c r="FH10" s="414"/>
-      <c r="FI10" s="414"/>
-      <c r="FJ10" s="414"/>
-      <c r="FK10" s="414"/>
-      <c r="FL10" s="414"/>
-      <c r="FM10" s="409" t="s">
+      <c r="EI10" s="404"/>
+      <c r="EJ10" s="404"/>
+      <c r="EK10" s="404"/>
+      <c r="EL10" s="404"/>
+      <c r="EM10" s="404"/>
+      <c r="EN10" s="404"/>
+      <c r="EO10" s="404"/>
+      <c r="EP10" s="404"/>
+      <c r="EQ10" s="404"/>
+      <c r="ER10" s="404"/>
+      <c r="ES10" s="404"/>
+      <c r="ET10" s="404"/>
+      <c r="EU10" s="404"/>
+      <c r="EV10" s="404"/>
+      <c r="EW10" s="404"/>
+      <c r="EX10" s="404"/>
+      <c r="EY10" s="404"/>
+      <c r="EZ10" s="404"/>
+      <c r="FA10" s="404"/>
+      <c r="FB10" s="404"/>
+      <c r="FC10" s="404"/>
+      <c r="FD10" s="404"/>
+      <c r="FE10" s="404"/>
+      <c r="FF10" s="404"/>
+      <c r="FG10" s="404"/>
+      <c r="FH10" s="404"/>
+      <c r="FI10" s="404"/>
+      <c r="FJ10" s="404"/>
+      <c r="FK10" s="404"/>
+      <c r="FL10" s="404"/>
+      <c r="FM10" s="416" t="s">
         <v>9</v>
       </c>
       <c r="FN10" s="28"/>
-      <c r="FO10" s="412" t="s">
+      <c r="FO10" s="414" t="s">
         <v>4</v>
       </c>
-      <c r="FP10" s="412" t="s">
+      <c r="FP10" s="414" t="s">
         <v>71</v>
       </c>
       <c r="FQ10" s="427" t="s">
@@ -17182,188 +17232,188 @@
     </row>
     <row r="11" spans="1:173" s="134" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="400"/>
-      <c r="B11" s="405" t="s">
+      <c r="B11" s="412" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="405" t="s">
+      <c r="C11" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="405" t="s">
+      <c r="D11" s="412" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="405" t="s">
+      <c r="E11" s="412" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="412" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="405" t="s">
+      <c r="G11" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="405" t="s">
+      <c r="H11" s="412" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="405" t="s">
+      <c r="I11" s="412" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="405" t="s">
+      <c r="J11" s="412" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="405" t="s">
+      <c r="K11" s="412" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="405" t="s">
+      <c r="L11" s="412" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="405" t="s">
+      <c r="M11" s="412" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="405" t="s">
+      <c r="N11" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="405" t="s">
+      <c r="O11" s="412" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="405" t="s">
+      <c r="P11" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="405" t="s">
+      <c r="Q11" s="412" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="405" t="s">
+      <c r="R11" s="412" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="405" t="s">
+      <c r="S11" s="412" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="405" t="s">
+      <c r="T11" s="412" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="405" t="s">
+      <c r="U11" s="412" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="405" t="s">
+      <c r="V11" s="412" t="s">
         <v>149</v>
       </c>
-      <c r="W11" s="405" t="s">
+      <c r="W11" s="412" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="405" t="s">
+      <c r="X11" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="405" t="s">
+      <c r="Y11" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="405" t="s">
+      <c r="Z11" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="405" t="s">
+      <c r="AA11" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="405" t="s">
+      <c r="AB11" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" s="405" t="s">
+      <c r="AC11" s="412" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="405" t="s">
+      <c r="AD11" s="412" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="405" t="s">
+      <c r="AE11" s="412" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="405" t="s">
+      <c r="AF11" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="AG11" s="405" t="s">
+      <c r="AG11" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="AH11" s="405" t="s">
+      <c r="AH11" s="412" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="405" t="s">
+      <c r="AI11" s="412" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" s="405" t="s">
+      <c r="AJ11" s="412" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="405" t="s">
+      <c r="AK11" s="412" t="s">
         <v>86</v>
       </c>
-      <c r="AL11" s="405" t="s">
+      <c r="AL11" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="405" t="s">
+      <c r="AM11" s="412" t="s">
         <v>87</v>
       </c>
-      <c r="AN11" s="405" t="s">
+      <c r="AN11" s="412" t="s">
         <v>231</v>
       </c>
-      <c r="AO11" s="405" t="s">
+      <c r="AO11" s="412" t="s">
         <v>90</v>
       </c>
-      <c r="AP11" s="405" t="s">
+      <c r="AP11" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="AQ11" s="405" t="s">
+      <c r="AQ11" s="412" t="s">
         <v>89</v>
       </c>
-      <c r="AR11" s="405" t="s">
+      <c r="AR11" s="412" t="s">
         <v>15</v>
       </c>
-      <c r="AS11" s="405" t="s">
+      <c r="AS11" s="412" t="s">
         <v>27</v>
       </c>
-      <c r="AT11" s="405" t="s">
+      <c r="AT11" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="AU11" s="405" t="s">
+      <c r="AU11" s="412" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="405" t="s">
+      <c r="AV11" s="412" t="s">
         <v>63</v>
       </c>
-      <c r="AW11" s="405" t="s">
+      <c r="AW11" s="412" t="s">
         <v>65</v>
       </c>
-      <c r="AX11" s="405" t="s">
+      <c r="AX11" s="412" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="405" t="s">
+      <c r="AY11" s="412" t="s">
         <v>58</v>
       </c>
-      <c r="AZ11" s="405" t="s">
+      <c r="AZ11" s="412" t="s">
         <v>57</v>
       </c>
-      <c r="BA11" s="405" t="s">
+      <c r="BA11" s="412" t="s">
         <v>53</v>
       </c>
-      <c r="BB11" s="405" t="s">
+      <c r="BB11" s="412" t="s">
         <v>93</v>
       </c>
-      <c r="BC11" s="405" t="s">
+      <c r="BC11" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="BD11" s="405" t="s">
+      <c r="BD11" s="412" t="s">
         <v>99</v>
       </c>
-      <c r="BE11" s="405" t="s">
+      <c r="BE11" s="412" t="s">
         <v>141</v>
       </c>
-      <c r="BF11" s="405" t="s">
+      <c r="BF11" s="412" t="s">
         <v>235</v>
       </c>
-      <c r="BG11" s="404">
+      <c r="BG11" s="413">
         <v>0.25</v>
       </c>
-      <c r="BH11" s="404">
+      <c r="BH11" s="413">
         <v>0.35</v>
       </c>
-      <c r="BI11" s="404">
+      <c r="BI11" s="413">
         <v>1</v>
       </c>
-      <c r="BJ11" s="404"/>
-      <c r="BK11" s="415"/>
+      <c r="BJ11" s="413"/>
+      <c r="BK11" s="417"/>
       <c r="BL11" s="424" t="s">
         <v>97</v>
       </c>
@@ -17433,28 +17483,28 @@
       <c r="DT11" s="379"/>
       <c r="DU11" s="379"/>
       <c r="DV11" s="379"/>
-      <c r="DW11" s="408" t="s">
+      <c r="DW11" s="423" t="s">
         <v>80</v>
       </c>
-      <c r="DX11" s="408"/>
-      <c r="DY11" s="408"/>
-      <c r="DZ11" s="408"/>
-      <c r="EA11" s="408"/>
-      <c r="EB11" s="408"/>
-      <c r="EC11" s="408"/>
-      <c r="ED11" s="408"/>
-      <c r="EE11" s="408"/>
-      <c r="EF11" s="408"/>
-      <c r="EG11" s="409"/>
-      <c r="EH11" s="409"/>
-      <c r="EI11" s="405" t="s">
+      <c r="DX11" s="423"/>
+      <c r="DY11" s="423"/>
+      <c r="DZ11" s="423"/>
+      <c r="EA11" s="423"/>
+      <c r="EB11" s="423"/>
+      <c r="EC11" s="423"/>
+      <c r="ED11" s="423"/>
+      <c r="EE11" s="423"/>
+      <c r="EF11" s="423"/>
+      <c r="EG11" s="416"/>
+      <c r="EH11" s="416"/>
+      <c r="EI11" s="412" t="s">
         <v>122</v>
       </c>
-      <c r="EJ11" s="405"/>
-      <c r="EK11" s="405"/>
-      <c r="EL11" s="405"/>
-      <c r="EM11" s="405"/>
-      <c r="EN11" s="405"/>
+      <c r="EJ11" s="412"/>
+      <c r="EK11" s="412"/>
+      <c r="EL11" s="412"/>
+      <c r="EM11" s="412"/>
+      <c r="EN11" s="412"/>
       <c r="EO11" s="229" t="s">
         <v>125</v>
       </c>
@@ -17464,99 +17514,99 @@
       <c r="EQ11" s="425"/>
       <c r="ER11" s="425"/>
       <c r="ES11" s="426"/>
-      <c r="ET11" s="405" t="s">
+      <c r="ET11" s="412" t="s">
         <v>126</v>
       </c>
-      <c r="EU11" s="405"/>
-      <c r="EV11" s="405"/>
-      <c r="EW11" s="405"/>
-      <c r="EX11" s="405"/>
-      <c r="EY11" s="405"/>
-      <c r="EZ11" s="405"/>
-      <c r="FA11" s="405"/>
-      <c r="FB11" s="405"/>
-      <c r="FC11" s="405"/>
-      <c r="FD11" s="405"/>
-      <c r="FE11" s="405"/>
-      <c r="FF11" s="405"/>
-      <c r="FG11" s="405"/>
-      <c r="FH11" s="405"/>
-      <c r="FI11" s="405"/>
-      <c r="FJ11" s="405"/>
-      <c r="FK11" s="405"/>
-      <c r="FL11" s="405" t="s">
+      <c r="EU11" s="412"/>
+      <c r="EV11" s="412"/>
+      <c r="EW11" s="412"/>
+      <c r="EX11" s="412"/>
+      <c r="EY11" s="412"/>
+      <c r="EZ11" s="412"/>
+      <c r="FA11" s="412"/>
+      <c r="FB11" s="412"/>
+      <c r="FC11" s="412"/>
+      <c r="FD11" s="412"/>
+      <c r="FE11" s="412"/>
+      <c r="FF11" s="412"/>
+      <c r="FG11" s="412"/>
+      <c r="FH11" s="412"/>
+      <c r="FI11" s="412"/>
+      <c r="FJ11" s="412"/>
+      <c r="FK11" s="412"/>
+      <c r="FL11" s="412" t="s">
         <v>3</v>
       </c>
-      <c r="FM11" s="409"/>
+      <c r="FM11" s="416"/>
       <c r="FN11" s="24"/>
-      <c r="FO11" s="412"/>
-      <c r="FP11" s="412"/>
+      <c r="FO11" s="414"/>
+      <c r="FP11" s="414"/>
       <c r="FQ11" s="427"/>
     </row>
     <row r="12" spans="1:173" s="134" customFormat="1" ht="49.5" customHeight="1">
       <c r="A12" s="401"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="405"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="405"/>
-      <c r="K12" s="405"/>
-      <c r="L12" s="405"/>
-      <c r="M12" s="405"/>
-      <c r="N12" s="405"/>
-      <c r="O12" s="405"/>
-      <c r="P12" s="405"/>
-      <c r="Q12" s="405"/>
-      <c r="R12" s="405"/>
-      <c r="S12" s="405"/>
-      <c r="T12" s="405"/>
-      <c r="U12" s="405"/>
-      <c r="V12" s="405"/>
-      <c r="W12" s="405"/>
-      <c r="X12" s="405"/>
-      <c r="Y12" s="405"/>
-      <c r="Z12" s="405"/>
-      <c r="AA12" s="405"/>
-      <c r="AB12" s="405"/>
-      <c r="AC12" s="405"/>
-      <c r="AD12" s="405"/>
-      <c r="AE12" s="405"/>
-      <c r="AF12" s="405"/>
-      <c r="AG12" s="405"/>
-      <c r="AH12" s="405"/>
-      <c r="AI12" s="405"/>
-      <c r="AJ12" s="405"/>
-      <c r="AK12" s="405"/>
-      <c r="AL12" s="405"/>
-      <c r="AM12" s="405"/>
-      <c r="AN12" s="405"/>
-      <c r="AO12" s="405"/>
-      <c r="AP12" s="405"/>
-      <c r="AQ12" s="405"/>
-      <c r="AR12" s="405"/>
-      <c r="AS12" s="405"/>
-      <c r="AT12" s="405"/>
-      <c r="AU12" s="405"/>
-      <c r="AV12" s="405"/>
-      <c r="AW12" s="405"/>
-      <c r="AX12" s="405"/>
-      <c r="AY12" s="405"/>
-      <c r="AZ12" s="405"/>
-      <c r="BA12" s="405"/>
-      <c r="BB12" s="405"/>
-      <c r="BC12" s="405"/>
-      <c r="BD12" s="405"/>
-      <c r="BE12" s="405"/>
-      <c r="BF12" s="405"/>
-      <c r="BG12" s="405"/>
-      <c r="BH12" s="405"/>
-      <c r="BI12" s="405"/>
-      <c r="BJ12" s="404"/>
-      <c r="BK12" s="415"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="412"/>
+      <c r="F12" s="412"/>
+      <c r="G12" s="412"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="412"/>
+      <c r="J12" s="412"/>
+      <c r="K12" s="412"/>
+      <c r="L12" s="412"/>
+      <c r="M12" s="412"/>
+      <c r="N12" s="412"/>
+      <c r="O12" s="412"/>
+      <c r="P12" s="412"/>
+      <c r="Q12" s="412"/>
+      <c r="R12" s="412"/>
+      <c r="S12" s="412"/>
+      <c r="T12" s="412"/>
+      <c r="U12" s="412"/>
+      <c r="V12" s="412"/>
+      <c r="W12" s="412"/>
+      <c r="X12" s="412"/>
+      <c r="Y12" s="412"/>
+      <c r="Z12" s="412"/>
+      <c r="AA12" s="412"/>
+      <c r="AB12" s="412"/>
+      <c r="AC12" s="412"/>
+      <c r="AD12" s="412"/>
+      <c r="AE12" s="412"/>
+      <c r="AF12" s="412"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="412"/>
+      <c r="AI12" s="412"/>
+      <c r="AJ12" s="412"/>
+      <c r="AK12" s="412"/>
+      <c r="AL12" s="412"/>
+      <c r="AM12" s="412"/>
+      <c r="AN12" s="412"/>
+      <c r="AO12" s="412"/>
+      <c r="AP12" s="412"/>
+      <c r="AQ12" s="412"/>
+      <c r="AR12" s="412"/>
+      <c r="AS12" s="412"/>
+      <c r="AT12" s="412"/>
+      <c r="AU12" s="412"/>
+      <c r="AV12" s="412"/>
+      <c r="AW12" s="412"/>
+      <c r="AX12" s="412"/>
+      <c r="AY12" s="412"/>
+      <c r="AZ12" s="412"/>
+      <c r="BA12" s="412"/>
+      <c r="BB12" s="412"/>
+      <c r="BC12" s="412"/>
+      <c r="BD12" s="412"/>
+      <c r="BE12" s="412"/>
+      <c r="BF12" s="412"/>
+      <c r="BG12" s="412"/>
+      <c r="BH12" s="412"/>
+      <c r="BI12" s="412"/>
+      <c r="BJ12" s="413"/>
+      <c r="BK12" s="417"/>
       <c r="BL12" s="229" t="s">
         <v>2</v>
       </c>
@@ -17746,8 +17796,8 @@
       <c r="EF12" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="EG12" s="409"/>
-      <c r="EH12" s="409"/>
+      <c r="EG12" s="416"/>
+      <c r="EH12" s="416"/>
       <c r="EI12" s="229" t="s">
         <v>75</v>
       </c>
@@ -17817,11 +17867,11 @@
       <c r="FI12" s="229"/>
       <c r="FJ12" s="229"/>
       <c r="FK12" s="229"/>
-      <c r="FL12" s="405"/>
-      <c r="FM12" s="409"/>
+      <c r="FL12" s="412"/>
+      <c r="FM12" s="416"/>
       <c r="FN12" s="24"/>
-      <c r="FO12" s="413"/>
-      <c r="FP12" s="413"/>
+      <c r="FO12" s="415"/>
+      <c r="FP12" s="415"/>
       <c r="FQ12" s="428"/>
     </row>
     <row r="13" spans="1:173" s="2" customFormat="1" ht="14.45" customHeight="1">
@@ -22603,9 +22653,86 @@
       <c r="FM31" s="192"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:FQ25"/>
+  <autoFilter ref="A12:FQ25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="93">
+    <mergeCell ref="CQ11:DJ11"/>
+    <mergeCell ref="DW11:EF11"/>
+    <mergeCell ref="EI11:EN11"/>
+    <mergeCell ref="EP11:ES11"/>
+    <mergeCell ref="ET11:FK11"/>
+    <mergeCell ref="FO10:FO12"/>
+    <mergeCell ref="FL11:FL12"/>
+    <mergeCell ref="EH10:EH12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="BL11:CP11"/>
+    <mergeCell ref="BE11:BE12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="BG11:BG12"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="FQ10:FQ12"/>
+    <mergeCell ref="FM10:FM12"/>
+    <mergeCell ref="FP10:FP12"/>
+    <mergeCell ref="EG10:EG12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BF11:BF12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AZ11:AZ12"/>
+    <mergeCell ref="BL10:EF10"/>
+    <mergeCell ref="BK10:BK12"/>
+    <mergeCell ref="BJ10:BJ12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="S11:S12"/>
     <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AC11:AC12"/>
@@ -22622,83 +22749,6 @@
     <mergeCell ref="AO11:AO12"/>
     <mergeCell ref="AP11:AP12"/>
     <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="FQ10:FQ12"/>
-    <mergeCell ref="FM10:FM12"/>
-    <mergeCell ref="FP10:FP12"/>
-    <mergeCell ref="EG10:EG12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BF11:BF12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AZ11:AZ12"/>
-    <mergeCell ref="BL10:EF10"/>
-    <mergeCell ref="BK10:BK12"/>
-    <mergeCell ref="BJ10:BJ12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="BA11:BA12"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="BL11:CP11"/>
-    <mergeCell ref="BE11:BE12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="BG11:BG12"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="FO10:FO12"/>
-    <mergeCell ref="FL11:FL12"/>
-    <mergeCell ref="EH10:EH12"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="CQ11:DJ11"/>
-    <mergeCell ref="DW11:EF11"/>
-    <mergeCell ref="EI11:EN11"/>
-    <mergeCell ref="EP11:ES11"/>
-    <mergeCell ref="ET11:FK11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -22709,18 +22759,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DR21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="X13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CT114" sqref="CT114"/>
       <selection pane="topRight" activeCell="CT114" sqref="CT114"/>
       <selection pane="bottomLeft" activeCell="CT114" sqref="CT114"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:F5"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1"/>
@@ -22923,10 +22973,10 @@
       <c r="D2" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="417" t="s">
+      <c r="E2" s="405" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="418"/>
+      <c r="F2" s="406"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
@@ -23053,10 +23103,10 @@
       <c r="D3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="417">
+      <c r="E3" s="405">
         <v>20330693917</v>
       </c>
-      <c r="F3" s="419"/>
+      <c r="F3" s="407"/>
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
@@ -23182,10 +23232,10 @@
       <c r="D4" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="408" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="421"/>
+      <c r="F4" s="409"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -23274,10 +23324,10 @@
       <c r="D5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="422">
+      <c r="E5" s="410">
         <v>43678</v>
       </c>
-      <c r="F5" s="423"/>
+      <c r="F5" s="411"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -23406,10 +23456,10 @@
       <c r="D6" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="422">
+      <c r="E6" s="410">
         <v>43708</v>
       </c>
-      <c r="F6" s="423"/>
+      <c r="F6" s="411"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -23901,108 +23951,108 @@
     </row>
     <row r="10" spans="1:122" s="131" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="224"/>
-      <c r="B10" s="414" t="s">
+      <c r="B10" s="404" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="414"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="404"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="404"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="404"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="404"/>
+      <c r="L10" s="404"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="404"/>
       <c r="O10" s="275"/>
-      <c r="P10" s="414" t="s">
+      <c r="P10" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="414"/>
-      <c r="R10" s="414"/>
-      <c r="S10" s="414" t="s">
+      <c r="Q10" s="404"/>
+      <c r="R10" s="404"/>
+      <c r="S10" s="404" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="414"/>
-      <c r="U10" s="414"/>
-      <c r="V10" s="414"/>
-      <c r="W10" s="414"/>
-      <c r="X10" s="414" t="s">
+      <c r="T10" s="404"/>
+      <c r="U10" s="404"/>
+      <c r="V10" s="404"/>
+      <c r="W10" s="404"/>
+      <c r="X10" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="414"/>
-      <c r="Z10" s="414" t="s">
+      <c r="Y10" s="404"/>
+      <c r="Z10" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="414"/>
-      <c r="AB10" s="414" t="s">
+      <c r="AA10" s="404"/>
+      <c r="AB10" s="404" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="414"/>
-      <c r="AD10" s="414"/>
-      <c r="AE10" s="414" t="s">
+      <c r="AC10" s="404"/>
+      <c r="AD10" s="404"/>
+      <c r="AE10" s="404" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="414"/>
-      <c r="AG10" s="414"/>
+      <c r="AF10" s="404"/>
+      <c r="AG10" s="404"/>
       <c r="AH10" s="275"/>
-      <c r="AI10" s="414" t="s">
+      <c r="AI10" s="404" t="s">
         <v>157</v>
       </c>
-      <c r="AJ10" s="414"/>
-      <c r="AK10" s="429" t="s">
+      <c r="AJ10" s="404"/>
+      <c r="AK10" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="AL10" s="429"/>
-      <c r="AM10" s="429"/>
-      <c r="AN10" s="429"/>
-      <c r="AO10" s="429"/>
-      <c r="AP10" s="429"/>
-      <c r="AQ10" s="429"/>
-      <c r="AR10" s="429"/>
-      <c r="AS10" s="414" t="s">
+      <c r="AL10" s="440"/>
+      <c r="AM10" s="440"/>
+      <c r="AN10" s="440"/>
+      <c r="AO10" s="440"/>
+      <c r="AP10" s="440"/>
+      <c r="AQ10" s="440"/>
+      <c r="AR10" s="440"/>
+      <c r="AS10" s="404" t="s">
         <v>32</v>
       </c>
-      <c r="AT10" s="414"/>
-      <c r="AU10" s="414"/>
-      <c r="AV10" s="414"/>
-      <c r="AW10" s="414"/>
-      <c r="AX10" s="414"/>
-      <c r="AY10" s="414"/>
-      <c r="AZ10" s="414"/>
-      <c r="BA10" s="414"/>
-      <c r="BB10" s="414"/>
-      <c r="BC10" s="414"/>
-      <c r="BD10" s="414"/>
-      <c r="BE10" s="414"/>
-      <c r="BF10" s="414"/>
-      <c r="BG10" s="414" t="s">
+      <c r="AT10" s="404"/>
+      <c r="AU10" s="404"/>
+      <c r="AV10" s="404"/>
+      <c r="AW10" s="404"/>
+      <c r="AX10" s="404"/>
+      <c r="AY10" s="404"/>
+      <c r="AZ10" s="404"/>
+      <c r="BA10" s="404"/>
+      <c r="BB10" s="404"/>
+      <c r="BC10" s="404"/>
+      <c r="BD10" s="404"/>
+      <c r="BE10" s="404"/>
+      <c r="BF10" s="404"/>
+      <c r="BG10" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="BH10" s="414"/>
-      <c r="BI10" s="414"/>
-      <c r="BJ10" s="404" t="s">
+      <c r="BH10" s="404"/>
+      <c r="BI10" s="404"/>
+      <c r="BJ10" s="413" t="s">
         <v>96</v>
       </c>
       <c r="BK10" s="350"/>
-      <c r="BL10" s="415" t="s">
+      <c r="BL10" s="417" t="s">
         <v>18</v>
       </c>
       <c r="BM10" s="345" t="s">
         <v>33</v>
       </c>
       <c r="BN10" s="345"/>
-      <c r="BO10" s="409" t="s">
+      <c r="BO10" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="BP10" s="430"/>
-      <c r="BQ10" s="430"/>
-      <c r="BR10" s="430"/>
-      <c r="BS10" s="430"/>
-      <c r="BT10" s="431"/>
-      <c r="BU10" s="432" t="s">
+      <c r="BP10" s="438"/>
+      <c r="BQ10" s="438"/>
+      <c r="BR10" s="438"/>
+      <c r="BS10" s="438"/>
+      <c r="BT10" s="439"/>
+      <c r="BU10" s="429" t="s">
         <v>9</v>
       </c>
       <c r="BV10" s="348"/>
@@ -24057,208 +24107,208 @@
     </row>
     <row r="11" spans="1:122" s="134" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="225"/>
-      <c r="B11" s="405" t="s">
+      <c r="B11" s="412" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="405" t="s">
+      <c r="C11" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="405" t="s">
+      <c r="D11" s="412" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="405" t="s">
+      <c r="E11" s="412" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="412" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="405" t="s">
+      <c r="G11" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="405" t="s">
+      <c r="H11" s="412" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="405" t="s">
+      <c r="I11" s="412" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="405" t="s">
+      <c r="J11" s="412" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="405" t="s">
+      <c r="K11" s="412" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="405" t="s">
+      <c r="L11" s="412" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="405" t="s">
+      <c r="M11" s="412" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="405" t="s">
+      <c r="N11" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="405" t="s">
+      <c r="O11" s="412" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="405" t="s">
+      <c r="P11" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="405" t="s">
+      <c r="Q11" s="412" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="405" t="s">
+      <c r="R11" s="412" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="405" t="s">
+      <c r="S11" s="412" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="405" t="s">
+      <c r="T11" s="412" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="405" t="s">
+      <c r="U11" s="412" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="411" t="s">
+      <c r="V11" s="419" t="s">
         <v>149</v>
       </c>
-      <c r="W11" s="411" t="s">
+      <c r="W11" s="419" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="411" t="s">
+      <c r="X11" s="419" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="411" t="s">
+      <c r="Y11" s="419" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="405" t="s">
+      <c r="Z11" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="405" t="s">
+      <c r="AA11" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" s="411" t="s">
+      <c r="AB11" s="419" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" s="411" t="s">
+      <c r="AC11" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="411" t="s">
+      <c r="AD11" s="419" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="405" t="s">
+      <c r="AE11" s="412" t="s">
         <v>13</v>
       </c>
-      <c r="AF11" s="405" t="s">
+      <c r="AF11" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="AG11" s="405" t="s">
+      <c r="AG11" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="AH11" s="405" t="s">
+      <c r="AH11" s="412" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="405" t="s">
+      <c r="AI11" s="412" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" s="405" t="s">
+      <c r="AJ11" s="412" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="405" t="s">
+      <c r="AK11" s="412" t="s">
         <v>86</v>
       </c>
-      <c r="AL11" s="405" t="s">
+      <c r="AL11" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="405" t="s">
+      <c r="AM11" s="412" t="s">
         <v>87</v>
       </c>
-      <c r="AN11" s="416" t="s">
+      <c r="AN11" s="418" t="s">
         <v>231</v>
       </c>
-      <c r="AO11" s="405" t="s">
+      <c r="AO11" s="412" t="s">
         <v>90</v>
       </c>
-      <c r="AP11" s="405" t="s">
+      <c r="AP11" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="AQ11" s="405" t="s">
+      <c r="AQ11" s="412" t="s">
         <v>89</v>
       </c>
-      <c r="AR11" s="405" t="s">
+      <c r="AR11" s="412" t="s">
         <v>15</v>
       </c>
-      <c r="AS11" s="405" t="s">
+      <c r="AS11" s="412" t="s">
         <v>27</v>
       </c>
-      <c r="AT11" s="405" t="s">
+      <c r="AT11" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="AU11" s="405" t="s">
+      <c r="AU11" s="412" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="405" t="s">
+      <c r="AV11" s="412" t="s">
         <v>63</v>
       </c>
-      <c r="AW11" s="405" t="s">
+      <c r="AW11" s="412" t="s">
         <v>65</v>
       </c>
-      <c r="AX11" s="405" t="s">
+      <c r="AX11" s="412" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="405" t="s">
+      <c r="AY11" s="412" t="s">
         <v>58</v>
       </c>
-      <c r="AZ11" s="405" t="s">
+      <c r="AZ11" s="412" t="s">
         <v>57</v>
       </c>
-      <c r="BA11" s="405" t="s">
+      <c r="BA11" s="412" t="s">
         <v>53</v>
       </c>
-      <c r="BB11" s="405" t="s">
+      <c r="BB11" s="412" t="s">
         <v>93</v>
       </c>
-      <c r="BC11" s="405" t="s">
+      <c r="BC11" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="BD11" s="405" t="s">
+      <c r="BD11" s="412" t="s">
         <v>99</v>
       </c>
-      <c r="BE11" s="405" t="s">
+      <c r="BE11" s="412" t="s">
         <v>141</v>
       </c>
-      <c r="BF11" s="405" t="s">
+      <c r="BF11" s="412" t="s">
         <v>235</v>
       </c>
-      <c r="BG11" s="404">
+      <c r="BG11" s="413">
         <v>0.25</v>
       </c>
-      <c r="BH11" s="404">
+      <c r="BH11" s="413">
         <v>0.35</v>
       </c>
-      <c r="BI11" s="404">
+      <c r="BI11" s="413">
         <v>1</v>
       </c>
-      <c r="BJ11" s="404"/>
-      <c r="BK11" s="405" t="s">
+      <c r="BJ11" s="413"/>
+      <c r="BK11" s="412" t="s">
         <v>269</v>
       </c>
-      <c r="BL11" s="415"/>
+      <c r="BL11" s="417"/>
       <c r="BM11" s="347" t="s">
         <v>97</v>
       </c>
       <c r="BN11" s="347"/>
-      <c r="BO11" s="409"/>
-      <c r="BP11" s="439" t="s">
+      <c r="BO11" s="416"/>
+      <c r="BP11" s="436" t="s">
         <v>221</v>
       </c>
-      <c r="BQ11" s="437" t="s">
+      <c r="BQ11" s="434" t="s">
         <v>250</v>
       </c>
       <c r="BR11" s="351"/>
       <c r="BS11" s="381"/>
-      <c r="BT11" s="435" t="s">
+      <c r="BT11" s="432" t="s">
         <v>3</v>
       </c>
-      <c r="BU11" s="433"/>
+      <c r="BU11" s="430"/>
       <c r="BV11" s="107"/>
       <c r="BW11" s="132"/>
       <c r="BX11" s="132"/>
@@ -24311,86 +24361,86 @@
     </row>
     <row r="12" spans="1:122" s="134" customFormat="1" ht="49.5" customHeight="1">
       <c r="A12" s="226"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="405"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="405"/>
-      <c r="K12" s="405"/>
-      <c r="L12" s="405"/>
-      <c r="M12" s="405"/>
-      <c r="N12" s="405"/>
-      <c r="O12" s="405"/>
-      <c r="P12" s="405"/>
-      <c r="Q12" s="405"/>
-      <c r="R12" s="405"/>
-      <c r="S12" s="405"/>
-      <c r="T12" s="405"/>
-      <c r="U12" s="405"/>
-      <c r="V12" s="411"/>
-      <c r="W12" s="411"/>
-      <c r="X12" s="411"/>
-      <c r="Y12" s="411"/>
-      <c r="Z12" s="405"/>
-      <c r="AA12" s="405"/>
-      <c r="AB12" s="411"/>
-      <c r="AC12" s="411"/>
-      <c r="AD12" s="411"/>
-      <c r="AE12" s="405"/>
-      <c r="AF12" s="405"/>
-      <c r="AG12" s="405"/>
-      <c r="AH12" s="405"/>
-      <c r="AI12" s="405"/>
-      <c r="AJ12" s="405"/>
-      <c r="AK12" s="405"/>
-      <c r="AL12" s="405"/>
-      <c r="AM12" s="405"/>
-      <c r="AN12" s="416"/>
-      <c r="AO12" s="405"/>
-      <c r="AP12" s="405"/>
-      <c r="AQ12" s="405"/>
-      <c r="AR12" s="405"/>
-      <c r="AS12" s="405"/>
-      <c r="AT12" s="405"/>
-      <c r="AU12" s="405"/>
-      <c r="AV12" s="405"/>
-      <c r="AW12" s="405"/>
-      <c r="AX12" s="405"/>
-      <c r="AY12" s="405"/>
-      <c r="AZ12" s="405"/>
-      <c r="BA12" s="405"/>
-      <c r="BB12" s="405"/>
-      <c r="BC12" s="405"/>
-      <c r="BD12" s="405"/>
-      <c r="BE12" s="405"/>
-      <c r="BF12" s="405"/>
-      <c r="BG12" s="405"/>
-      <c r="BH12" s="405"/>
-      <c r="BI12" s="405"/>
-      <c r="BJ12" s="404"/>
-      <c r="BK12" s="405"/>
-      <c r="BL12" s="415"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="412"/>
+      <c r="F12" s="412"/>
+      <c r="G12" s="412"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="412"/>
+      <c r="J12" s="412"/>
+      <c r="K12" s="412"/>
+      <c r="L12" s="412"/>
+      <c r="M12" s="412"/>
+      <c r="N12" s="412"/>
+      <c r="O12" s="412"/>
+      <c r="P12" s="412"/>
+      <c r="Q12" s="412"/>
+      <c r="R12" s="412"/>
+      <c r="S12" s="412"/>
+      <c r="T12" s="412"/>
+      <c r="U12" s="412"/>
+      <c r="V12" s="419"/>
+      <c r="W12" s="419"/>
+      <c r="X12" s="419"/>
+      <c r="Y12" s="419"/>
+      <c r="Z12" s="412"/>
+      <c r="AA12" s="412"/>
+      <c r="AB12" s="419"/>
+      <c r="AC12" s="419"/>
+      <c r="AD12" s="419"/>
+      <c r="AE12" s="412"/>
+      <c r="AF12" s="412"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="412"/>
+      <c r="AI12" s="412"/>
+      <c r="AJ12" s="412"/>
+      <c r="AK12" s="412"/>
+      <c r="AL12" s="412"/>
+      <c r="AM12" s="412"/>
+      <c r="AN12" s="418"/>
+      <c r="AO12" s="412"/>
+      <c r="AP12" s="412"/>
+      <c r="AQ12" s="412"/>
+      <c r="AR12" s="412"/>
+      <c r="AS12" s="412"/>
+      <c r="AT12" s="412"/>
+      <c r="AU12" s="412"/>
+      <c r="AV12" s="412"/>
+      <c r="AW12" s="412"/>
+      <c r="AX12" s="412"/>
+      <c r="AY12" s="412"/>
+      <c r="AZ12" s="412"/>
+      <c r="BA12" s="412"/>
+      <c r="BB12" s="412"/>
+      <c r="BC12" s="412"/>
+      <c r="BD12" s="412"/>
+      <c r="BE12" s="412"/>
+      <c r="BF12" s="412"/>
+      <c r="BG12" s="412"/>
+      <c r="BH12" s="412"/>
+      <c r="BI12" s="412"/>
+      <c r="BJ12" s="413"/>
+      <c r="BK12" s="412"/>
+      <c r="BL12" s="417"/>
       <c r="BM12" s="274" t="s">
         <v>2</v>
       </c>
       <c r="BN12" s="346" t="s">
         <v>251</v>
       </c>
-      <c r="BO12" s="409"/>
-      <c r="BP12" s="440"/>
-      <c r="BQ12" s="438"/>
+      <c r="BO12" s="416"/>
+      <c r="BP12" s="437"/>
+      <c r="BQ12" s="435"/>
       <c r="BR12" s="352" t="s">
         <v>270</v>
       </c>
       <c r="BS12" s="382" t="s">
         <v>53</v>
       </c>
-      <c r="BT12" s="436"/>
-      <c r="BU12" s="434"/>
+      <c r="BT12" s="433"/>
+      <c r="BU12" s="431"/>
       <c r="BV12" s="107"/>
       <c r="BW12" s="132"/>
       <c r="BX12" s="132"/>
@@ -25951,9 +26001,78 @@
       <c r="BV21" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:BW21"/>
+  <autoFilter ref="A12:BW21" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <dataConsolidate/>
   <mergeCells count="85">
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="BJ10:BJ12"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="BC11:BC12"/>
+    <mergeCell ref="BB11:BB12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="BO10:BO12"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="BE11:BE12"/>
+    <mergeCell ref="BF11:BF12"/>
+    <mergeCell ref="BG11:BG12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AZ11:AZ12"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BD11:BD12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="BU10:BU12"/>
     <mergeCell ref="BT11:BT12"/>
     <mergeCell ref="BQ11:BQ12"/>
@@ -25970,75 +26089,6 @@
     <mergeCell ref="AP11:AP12"/>
     <mergeCell ref="AQ11:AQ12"/>
     <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BD11:BD12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="BO10:BO12"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="BE11:BE12"/>
-    <mergeCell ref="BF11:BF12"/>
-    <mergeCell ref="BG11:BG12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AZ11:AZ12"/>
-    <mergeCell ref="BA11:BA12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="BJ10:BJ12"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="BC11:BC12"/>
-    <mergeCell ref="BB11:BB12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -26049,7 +26099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -26060,7 +26110,7 @@
       <selection activeCell="FA18" sqref="FA18"/>
       <selection pane="topRight" activeCell="FA18" sqref="FA18"/>
       <selection pane="bottomLeft" activeCell="FA18" sqref="FA18"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="A26:O27"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -26202,7 +26252,7 @@
       </c>
       <c r="AC8" s="289">
         <f ca="1">+TODAY()</f>
-        <v>43705</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="294" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
@@ -26234,7 +26284,7 @@
       <c r="J9" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="445" t="s">
+      <c r="K9" s="442" t="s">
         <v>217</v>
       </c>
       <c r="L9" s="441" t="s">
@@ -26276,7 +26326,7 @@
       <c r="X9" s="441" t="s">
         <v>223</v>
       </c>
-      <c r="Y9" s="443" t="s">
+      <c r="Y9" s="444" t="s">
         <v>53</v>
       </c>
       <c r="Z9" s="441" t="s">
@@ -26284,7 +26334,7 @@
       </c>
       <c r="AA9" s="291"/>
       <c r="AB9" s="292"/>
-      <c r="AC9" s="442" t="s">
+      <c r="AC9" s="443" t="s">
         <v>224</v>
       </c>
       <c r="AD9" s="293"/>
@@ -26300,7 +26350,7 @@
       <c r="H10" s="441"/>
       <c r="I10" s="441"/>
       <c r="J10" s="441"/>
-      <c r="K10" s="445"/>
+      <c r="K10" s="442"/>
       <c r="L10" s="441"/>
       <c r="M10" s="441"/>
       <c r="N10" s="441"/>
@@ -26314,13 +26364,13 @@
       <c r="V10" s="441"/>
       <c r="W10" s="441"/>
       <c r="X10" s="441"/>
-      <c r="Y10" s="444"/>
+      <c r="Y10" s="445"/>
       <c r="Z10" s="441"/>
       <c r="AA10" s="291"/>
       <c r="AB10" s="292" t="s">
         <v>225</v>
       </c>
-      <c r="AC10" s="442"/>
+      <c r="AC10" s="443"/>
       <c r="AD10" s="293" t="s">
         <v>226</v>
       </c>
@@ -26328,7 +26378,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="311" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:31" s="311" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="295"/>
       <c r="B11" s="296"/>
       <c r="C11" s="297"/>
@@ -26360,7 +26410,7 @@
       <c r="AC11" s="310"/>
       <c r="AD11" s="293"/>
     </row>
-    <row r="12" spans="1:31" s="316" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:31" s="316" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="295"/>
       <c r="B12" s="312"/>
       <c r="C12" s="297"/>
@@ -26623,15 +26673,17 @@
       <c r="AA18" s="291"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:AC12"/>
+  <autoFilter ref="A10:AC12" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <dataConsolidate link="1"/>
   <mergeCells count="26">
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
@@ -26644,14 +26696,12 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="AC11">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
